--- a/ea49_rae_suppl_data1.xlsx
+++ b/ea49_rae_suppl_data1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leoafriyie-buabeng/Desktop/Schneider Cut /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leoafriyie-buabeng/Desktop/Schneider Cut /Clima-Graphs-and-Data-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4751249C-0889-4B43-9FD3-9F1B19EB23B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D285482-534F-3049-8B6F-7D207C79423B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="1580" windowWidth="23980" windowHeight="15540" activeTab="3" xr2:uid="{02D22DDB-61A2-F549-98A5-B8BA42D9B8F2}"/>
+    <workbookView xWindow="1300" yWindow="1580" windowWidth="23980" windowHeight="15540" activeTab="1" xr2:uid="{02D22DDB-61A2-F549-98A5-B8BA42D9B8F2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="3" r:id="rId1"/>
@@ -427,7 +427,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -486,6 +486,21 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10054,16 +10069,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06741BD6-94DD-A444-8C06-932051040B6A}">
   <dimension ref="A1:H232"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AR1" sqref="AR1"/>
-      <selection pane="bottomLeft" activeCell="G232" sqref="G210:G232"/>
+      <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="10" customWidth="1"/>
-    <col min="2" max="3" width="8.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="12" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="10" customWidth="1"/>
     <col min="5" max="6" width="9" style="10" customWidth="1"/>
     <col min="7" max="7" width="35.5703125" style="10" customWidth="1"/>
@@ -10074,7 +10090,7 @@
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="32" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
@@ -10100,7 +10116,7 @@
       <c r="A2" s="16">
         <v>925</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="33">
         <v>20</v>
       </c>
       <c r="C2" s="14">
@@ -10126,7 +10142,7 @@
       <c r="A3" s="16">
         <v>925</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="33">
         <v>20.00001</v>
       </c>
       <c r="C3" s="14">
@@ -10152,7 +10168,7 @@
       <c r="A4" s="16">
         <v>925</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="33">
         <v>28</v>
       </c>
       <c r="C4" s="14">
@@ -10178,7 +10194,7 @@
       <c r="A5" s="16">
         <v>925</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="33">
         <v>33.5</v>
       </c>
       <c r="C5" s="14">
@@ -10204,7 +10220,7 @@
       <c r="A6" s="16">
         <v>925</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="33">
         <v>41.2</v>
       </c>
       <c r="C6" s="14">
@@ -10230,7 +10246,7 @@
       <c r="A7" s="16">
         <v>925</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="33">
         <v>58.3</v>
       </c>
       <c r="C7" s="14">
@@ -10256,7 +10272,7 @@
       <c r="A8" s="16">
         <v>925</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="33">
         <v>73.599999999999994</v>
       </c>
       <c r="C8" s="14">
@@ -10282,7 +10298,7 @@
       <c r="A9" s="16">
         <v>925</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="33">
         <v>89.3</v>
       </c>
       <c r="C9" s="14">
@@ -10308,7 +10324,7 @@
       <c r="A10" s="16">
         <v>925</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="33">
         <v>105.40000000000002</v>
       </c>
       <c r="C10" s="14">
@@ -10334,7 +10350,7 @@
       <c r="A11" s="16">
         <v>925</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="33">
         <v>113.2</v>
       </c>
       <c r="C11" s="14">
@@ -10360,7 +10376,7 @@
       <c r="A12" s="16">
         <v>925</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="33">
         <v>133.6</v>
       </c>
       <c r="C12" s="14">
@@ -10386,7 +10402,7 @@
       <c r="A13" s="16">
         <v>925</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="33">
         <v>146.5</v>
       </c>
       <c r="C13" s="14">
@@ -10412,7 +10428,7 @@
       <c r="A14" s="16">
         <v>925</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="33">
         <v>156.19999999999999</v>
       </c>
       <c r="C14" s="14">
@@ -10438,7 +10454,7 @@
       <c r="A15" s="16">
         <v>925</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="33">
         <v>166.6</v>
       </c>
       <c r="C15" s="14">
@@ -10462,25 +10478,25 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="16">
-        <v>925</v>
-      </c>
-      <c r="B16" s="14">
-        <v>310</v>
+        <v>999</v>
+      </c>
+      <c r="B16" s="33">
+        <v>199.9</v>
       </c>
       <c r="C16" s="14">
-        <v>12.3719241945197</v>
+        <v>12.148239890773738</v>
       </c>
       <c r="D16" s="15">
-        <v>117.20939147306774</v>
+        <v>190.44396309733906</v>
       </c>
       <c r="E16" s="15">
-        <v>88.369240368407631</v>
+        <v>136.42672817963495</v>
       </c>
       <c r="F16" s="15">
-        <v>166.4672091053491</v>
+        <v>285.27621482881256</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>67</v>
@@ -10488,25 +10504,25 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="16">
-        <v>925</v>
-      </c>
-      <c r="B17" s="14">
-        <v>431</v>
+        <v>806</v>
+      </c>
+      <c r="B17" s="33">
+        <v>215.29000000000002</v>
       </c>
       <c r="C17" s="14">
-        <v>11.0314375940057</v>
+        <v>12.24150771630458</v>
       </c>
       <c r="D17" s="15">
-        <v>144.42371324393682</v>
+        <v>189.99940749843043</v>
       </c>
       <c r="E17" s="15">
-        <v>113.48833340340217</v>
+        <v>133.8779999125253</v>
       </c>
       <c r="F17" s="15">
-        <v>197.89366253505651</v>
+        <v>285.86036878028824</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>67</v>
@@ -10514,25 +10530,25 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="16">
-        <v>925</v>
-      </c>
-      <c r="B18" s="14">
-        <v>575.29999999999995</v>
+        <v>999</v>
+      </c>
+      <c r="B18" s="33">
+        <v>253.45000000000002</v>
       </c>
       <c r="C18" s="14">
-        <v>11.539603941699999</v>
+        <v>10.906192051933772</v>
       </c>
       <c r="D18" s="15">
-        <v>131.12340786080287</v>
+        <v>200.27423148518949</v>
       </c>
       <c r="E18" s="15">
-        <v>95.785585108878109</v>
+        <v>147.62953432144536</v>
       </c>
       <c r="F18" s="15">
-        <v>185.99211648863729</v>
+        <v>290.12955107778538</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>67</v>
@@ -10542,20 +10558,20 @@
       <c r="A19" s="16">
         <v>925</v>
       </c>
-      <c r="B19" s="14">
-        <v>928.7</v>
+      <c r="B19" s="33">
+        <v>310</v>
       </c>
       <c r="C19" s="14">
-        <v>11.3359631377876</v>
+        <v>12.3719241945197</v>
       </c>
       <c r="D19" s="15">
-        <v>149.98059681074534</v>
+        <v>117.20939147306774</v>
       </c>
       <c r="E19" s="15">
-        <v>112.36743526164118</v>
+        <v>88.369240368407631</v>
       </c>
       <c r="F19" s="15">
-        <v>211.3809381404275</v>
+        <v>166.4672091053491</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>77</v>
@@ -10568,20 +10584,20 @@
       <c r="A20" s="16">
         <v>925</v>
       </c>
-      <c r="B20" s="14">
-        <v>1046</v>
+      <c r="B20" s="33">
+        <v>431</v>
       </c>
       <c r="C20" s="14">
-        <v>11.6711971507619</v>
+        <v>11.0314375940057</v>
       </c>
       <c r="D20" s="15">
-        <v>203.62557314428531</v>
+        <v>144.42371324393682</v>
       </c>
       <c r="E20" s="15">
-        <v>155.03276256492776</v>
+        <v>113.48833340340217</v>
       </c>
       <c r="F20" s="15">
-        <v>306.61146448121917</v>
+        <v>197.89366253505651</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>77</v>
@@ -10592,25 +10608,25 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="16">
-        <v>925</v>
-      </c>
-      <c r="B21" s="14">
-        <v>1191</v>
+        <v>806</v>
+      </c>
+      <c r="B21" s="33">
+        <v>448.77</v>
       </c>
       <c r="C21" s="14">
-        <v>12.4689783175098</v>
+        <v>13.239487668162267</v>
       </c>
       <c r="D21" s="15">
-        <v>168.40321721765369</v>
+        <v>246.01615027408613</v>
       </c>
       <c r="E21" s="15">
-        <v>127.91973545179374</v>
+        <v>168.99257523986731</v>
       </c>
       <c r="F21" s="15">
-        <v>241.29106734878326</v>
+        <v>394.68474438861949</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>67</v>
@@ -10618,25 +10634,25 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="16">
-        <v>925</v>
-      </c>
-      <c r="B22" s="14">
-        <v>1206</v>
+        <v>999</v>
+      </c>
+      <c r="B22" s="33">
+        <v>456.3</v>
       </c>
       <c r="C22" s="14">
-        <v>11.9512030168216</v>
+        <v>10.963155823350945</v>
       </c>
       <c r="D22" s="15">
-        <v>185.88006239258632</v>
+        <v>163.00919396940256</v>
       </c>
       <c r="E22" s="15">
-        <v>137.50954872690448</v>
+        <v>121.2278636335427</v>
       </c>
       <c r="F22" s="15">
-        <v>266.68068286390434</v>
+        <v>244.97069677305504</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>67</v>
@@ -10646,20 +10662,20 @@
       <c r="A23" s="16">
         <v>925</v>
       </c>
-      <c r="B23" s="14">
-        <v>1218.7999999999997</v>
+      <c r="B23" s="33">
+        <v>575.29999999999995</v>
       </c>
       <c r="C23" s="14">
-        <v>12.2161144430275</v>
+        <v>11.539603941699999</v>
       </c>
       <c r="D23" s="15">
-        <v>196.79385767120991</v>
+        <v>131.12340786080287</v>
       </c>
       <c r="E23" s="15">
-        <v>145.83667800747054</v>
+        <v>95.785585108878109</v>
       </c>
       <c r="F23" s="15">
-        <v>279.63518746536676</v>
+        <v>185.99211648863729</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>77</v>
@@ -10670,25 +10686,25 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="16">
-        <v>925</v>
-      </c>
-      <c r="B24" s="14">
-        <v>1232.2</v>
+        <v>806</v>
+      </c>
+      <c r="B24" s="33">
+        <v>645.05999999999995</v>
       </c>
       <c r="C24" s="14">
-        <v>12.359012600299</v>
+        <v>12.706641650434989</v>
       </c>
       <c r="D24" s="15">
-        <v>131.44926924702287</v>
+        <v>214.73601418317867</v>
       </c>
       <c r="E24" s="15">
-        <v>103.48824979019165</v>
+        <v>153.07826912822964</v>
       </c>
       <c r="F24" s="15">
-        <v>179.81123346210134</v>
+        <v>342.93642977892705</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>67</v>
@@ -10696,25 +10712,25 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="16">
-        <v>925</v>
-      </c>
-      <c r="B25" s="14">
-        <v>1250</v>
+        <v>806</v>
+      </c>
+      <c r="B25" s="33">
+        <v>720.15</v>
       </c>
       <c r="C25" s="14">
-        <v>11.3339943273101</v>
+        <v>12.795612383792349</v>
       </c>
       <c r="D25" s="15">
-        <v>164.93440087875899</v>
+        <v>205.10546378153438</v>
       </c>
       <c r="E25" s="15">
-        <v>120.40259062281268</v>
+        <v>142.12629253735844</v>
       </c>
       <c r="F25" s="15">
-        <v>232.4124995109072</v>
+        <v>304.25239462364601</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>67</v>
@@ -10722,25 +10738,25 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="16">
-        <v>925</v>
-      </c>
-      <c r="B26" s="14">
-        <v>1272</v>
+        <v>806</v>
+      </c>
+      <c r="B26" s="33">
+        <v>776.92000000000007</v>
       </c>
       <c r="C26" s="14">
-        <v>11.897122597765501</v>
+        <v>12.294709346366362</v>
       </c>
       <c r="D26" s="15">
-        <v>141.46244215567833</v>
+        <v>168.79471728980653</v>
       </c>
       <c r="E26" s="15">
-        <v>104.46979786087492</v>
+        <v>117.18451873775311</v>
       </c>
       <c r="F26" s="15">
-        <v>208.8057785450807</v>
+        <v>249.17121625734822</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H26" s="11" t="s">
         <v>67</v>
@@ -10748,25 +10764,25 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="16">
-        <v>925</v>
-      </c>
-      <c r="B27" s="14">
-        <v>1284.5999999999999</v>
+        <v>806</v>
+      </c>
+      <c r="B27" s="33">
+        <v>823.86</v>
       </c>
       <c r="C27" s="14">
-        <v>11.507072177741099</v>
+        <v>13.475202874602948</v>
       </c>
       <c r="D27" s="15">
-        <v>212.16453739433709</v>
+        <v>225.06285927199821</v>
       </c>
       <c r="E27" s="15">
-        <v>158.64405274854889</v>
+        <v>160.53587970748623</v>
       </c>
       <c r="F27" s="15">
-        <v>320.59550490789303</v>
+        <v>349.01473531545173</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H27" s="11" t="s">
         <v>67</v>
@@ -10774,25 +10790,25 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="16">
-        <v>925</v>
-      </c>
-      <c r="B28" s="14">
-        <v>1351.2</v>
+        <v>806</v>
+      </c>
+      <c r="B28" s="33">
+        <v>855.15</v>
       </c>
       <c r="C28" s="14">
-        <v>12.563843736403101</v>
+        <v>12.50569146253925</v>
       </c>
       <c r="D28" s="15">
-        <v>155.31469585405293</v>
+        <v>189.98558282961702</v>
       </c>
       <c r="E28" s="15">
-        <v>119.59731611091783</v>
+        <v>126.38210683494361</v>
       </c>
       <c r="F28" s="15">
-        <v>224.15522598059837</v>
+        <v>291.97567922815153</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>67</v>
@@ -10800,25 +10816,25 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="16">
-        <v>925</v>
-      </c>
-      <c r="B29" s="14">
-        <v>1640.7</v>
+        <v>999</v>
+      </c>
+      <c r="B29" s="33">
+        <v>900</v>
       </c>
       <c r="C29" s="14">
-        <v>11.8097350423938</v>
+        <v>10.451574723596924</v>
       </c>
       <c r="D29" s="15">
-        <v>170.70548597038103</v>
+        <v>160.97731103638171</v>
       </c>
       <c r="E29" s="15">
-        <v>132.53725056020281</v>
+        <v>116.04586347564522</v>
       </c>
       <c r="F29" s="15">
-        <v>242.12450129169659</v>
+        <v>224.34656387064825</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>67</v>
@@ -10826,25 +10842,25 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="16">
-        <v>925</v>
-      </c>
-      <c r="B30" s="14">
-        <v>1729.5</v>
+        <v>806</v>
+      </c>
+      <c r="B30" s="33">
+        <v>926.67</v>
       </c>
       <c r="C30" s="14">
-        <v>11.9916826650219</v>
+        <v>13.160763459211065</v>
       </c>
       <c r="D30" s="15">
-        <v>160.86815009112667</v>
+        <v>238.89722703250081</v>
       </c>
       <c r="E30" s="15">
-        <v>122.16644681117877</v>
+        <v>165.29261554846943</v>
       </c>
       <c r="F30" s="15">
-        <v>225.74780887369425</v>
+        <v>382.19080119789595</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>67</v>
@@ -10854,20 +10870,20 @@
       <c r="A31" s="16">
         <v>925</v>
       </c>
-      <c r="B31" s="14">
-        <v>1965</v>
+      <c r="B31" s="33">
+        <v>928.7</v>
       </c>
       <c r="C31" s="14">
-        <v>11.8296583803446</v>
+        <v>11.3359631377876</v>
       </c>
       <c r="D31" s="15">
-        <v>216.25866475782956</v>
+        <v>149.98059681074534</v>
       </c>
       <c r="E31" s="15">
-        <v>157.58948978663375</v>
+        <v>112.36743526164118</v>
       </c>
       <c r="F31" s="15">
-        <v>311.60144492506271</v>
+        <v>211.3809381404275</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>77</v>
@@ -10878,25 +10894,25 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="16">
-        <v>925</v>
-      </c>
-      <c r="B32" s="14">
-        <v>2092.6</v>
+        <v>806</v>
+      </c>
+      <c r="B32" s="33">
+        <v>998.19</v>
       </c>
       <c r="C32" s="14">
-        <v>12.6154095436932</v>
+        <v>13.588668328268307</v>
       </c>
       <c r="D32" s="15">
-        <v>213.95762560102472</v>
+        <v>286.79291731611482</v>
       </c>
       <c r="E32" s="15">
-        <v>159.09983767601159</v>
+        <v>195.76694817712252</v>
       </c>
       <c r="F32" s="15">
-        <v>306.20653547943158</v>
+        <v>440.86481652558007</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H32" s="11" t="s">
         <v>67</v>
@@ -10904,25 +10920,25 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="16">
-        <v>925</v>
-      </c>
-      <c r="B33" s="14">
-        <v>2191.5</v>
+        <v>999</v>
+      </c>
+      <c r="B33" s="33">
+        <v>1000</v>
       </c>
       <c r="C33" s="14">
-        <v>12.5618480289376</v>
+        <v>10.304686598704205</v>
       </c>
       <c r="D33" s="15">
-        <v>244.41690618687858</v>
+        <v>225.49798618086442</v>
       </c>
       <c r="E33" s="15">
-        <v>177.41228279842974</v>
+        <v>164.33129683841645</v>
       </c>
       <c r="F33" s="15">
-        <v>364.91801949107469</v>
+        <v>351.93779161986328</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>67</v>
@@ -10932,20 +10948,20 @@
       <c r="A34" s="16">
         <v>925</v>
       </c>
-      <c r="B34" s="14">
-        <v>2296.8000000000002</v>
+      <c r="B34" s="33">
+        <v>1046</v>
       </c>
       <c r="C34" s="14">
-        <v>12.942292229185499</v>
+        <v>11.6711971507619</v>
       </c>
       <c r="D34" s="15">
-        <v>262.06492608105179</v>
+        <v>203.62557314428531</v>
       </c>
       <c r="E34" s="15">
-        <v>191.54383905216446</v>
+        <v>155.03276256492776</v>
       </c>
       <c r="F34" s="15">
-        <v>394.77128170368451</v>
+        <v>306.61146448121917</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>77</v>
@@ -10956,25 +10972,25 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="16">
-        <v>925</v>
-      </c>
-      <c r="B35" s="14">
-        <v>2402</v>
+        <v>806</v>
+      </c>
+      <c r="B35" s="33">
+        <v>1051.8300000000002</v>
       </c>
       <c r="C35" s="14">
-        <v>13.119716667994201</v>
+        <v>12.885531881043331</v>
       </c>
       <c r="D35" s="15">
-        <v>230.05147464184785</v>
+        <v>214.983751779578</v>
       </c>
       <c r="E35" s="15">
-        <v>169.03621902462297</v>
+        <v>150.09066749850481</v>
       </c>
       <c r="F35" s="15">
-        <v>342.53549217330351</v>
+        <v>341.25416420420981</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>67</v>
@@ -10982,25 +10998,25 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="16">
-        <v>925</v>
-      </c>
-      <c r="B36" s="14">
-        <v>2587</v>
+        <v>806</v>
+      </c>
+      <c r="B36" s="33">
+        <v>1123.3500000000001</v>
       </c>
       <c r="C36" s="14">
-        <v>12.7802964202619</v>
+        <v>12.892537867572555</v>
       </c>
       <c r="D36" s="15">
-        <v>155.41764779009648</v>
+        <v>189.26604008880341</v>
       </c>
       <c r="E36" s="15">
-        <v>117.11128258376968</v>
+        <v>132.2310133999311</v>
       </c>
       <c r="F36" s="15">
-        <v>226.71168206891588</v>
+        <v>278.66652143936449</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H36" s="11" t="s">
         <v>67</v>
@@ -11008,25 +11024,25 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="16">
-        <v>925</v>
-      </c>
-      <c r="B37" s="14">
-        <v>2604.3000000000002</v>
+        <v>806</v>
+      </c>
+      <c r="B37" s="33">
+        <v>1179.22</v>
       </c>
       <c r="C37" s="14">
-        <v>11.7508323258619</v>
+        <v>13.747989175992796</v>
       </c>
       <c r="D37" s="15">
-        <v>180.26028044750103</v>
+        <v>270.67131113421931</v>
       </c>
       <c r="E37" s="15">
-        <v>132.44399105140587</v>
+        <v>183.06573750945356</v>
       </c>
       <c r="F37" s="15">
-        <v>255.31138301024416</v>
+        <v>436.49588435473072</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H37" s="11" t="s">
         <v>67</v>
@@ -11034,25 +11050,25 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="16">
-        <v>925</v>
-      </c>
-      <c r="B38" s="14">
-        <v>2718</v>
+        <v>806</v>
+      </c>
+      <c r="B38" s="33">
+        <v>1190.3999999999999</v>
       </c>
       <c r="C38" s="14">
-        <v>12.1340345639598</v>
+        <v>13.123491404469501</v>
       </c>
       <c r="D38" s="15">
-        <v>154.51938607783347</v>
+        <v>242.96467495194275</v>
       </c>
       <c r="E38" s="15">
-        <v>118.61240801223717</v>
+        <v>169.01899056438219</v>
       </c>
       <c r="F38" s="15">
-        <v>224.50382648219471</v>
+        <v>373.29903201198664</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H38" s="11" t="s">
         <v>67</v>
@@ -11062,20 +11078,20 @@
       <c r="A39" s="16">
         <v>925</v>
       </c>
-      <c r="B39" s="14">
-        <v>2940</v>
+      <c r="B39" s="33">
+        <v>1191</v>
       </c>
       <c r="C39" s="14">
-        <v>11.717598345362299</v>
+        <v>12.4689783175098</v>
       </c>
       <c r="D39" s="15">
-        <v>243.57204920051896</v>
+        <v>168.40321721765369</v>
       </c>
       <c r="E39" s="15">
-        <v>180.40683449936242</v>
+        <v>127.91973545179374</v>
       </c>
       <c r="F39" s="15">
-        <v>370.85164970981793</v>
+        <v>241.29106734878326</v>
       </c>
       <c r="G39" s="28" t="s">
         <v>77</v>
@@ -11086,25 +11102,25 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="16">
-        <v>925</v>
-      </c>
-      <c r="B40" s="14">
-        <v>3082</v>
+        <v>999</v>
+      </c>
+      <c r="B40" s="33">
+        <v>1200</v>
       </c>
       <c r="C40" s="14">
-        <v>12.924919726404299</v>
+        <v>11.229086495062601</v>
       </c>
       <c r="D40" s="15">
-        <v>181.76820983473146</v>
+        <v>212.24043861623653</v>
       </c>
       <c r="E40" s="15">
-        <v>136.15252986286748</v>
+        <v>153.29907366540903</v>
       </c>
       <c r="F40" s="15">
-        <v>253.12568957264358</v>
+        <v>326.92525435377593</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H40" s="11" t="s">
         <v>67</v>
@@ -11114,20 +11130,20 @@
       <c r="A41" s="16">
         <v>925</v>
       </c>
-      <c r="B41" s="14">
-        <v>3131.3</v>
+      <c r="B41" s="33">
+        <v>1206</v>
       </c>
       <c r="C41" s="14">
-        <v>12.1473390229994</v>
+        <v>11.9512030168216</v>
       </c>
       <c r="D41" s="15">
-        <v>234.65286431784091</v>
+        <v>185.88006239258632</v>
       </c>
       <c r="E41" s="15">
-        <v>171.6914943995331</v>
+        <v>137.50954872690448</v>
       </c>
       <c r="F41" s="15">
-        <v>331.72549212772924</v>
+        <v>266.68068286390434</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>77</v>
@@ -11140,20 +11156,20 @@
       <c r="A42" s="16">
         <v>925</v>
       </c>
-      <c r="B42" s="14">
-        <v>3321</v>
+      <c r="B42" s="33">
+        <v>1218.7999999999997</v>
       </c>
       <c r="C42" s="14">
-        <v>12.8241690390782</v>
+        <v>12.2161144430275</v>
       </c>
       <c r="D42" s="15">
-        <v>199.32934312568349</v>
+        <v>196.79385767120991</v>
       </c>
       <c r="E42" s="15">
-        <v>147.51140483788737</v>
+        <v>145.83667800747054</v>
       </c>
       <c r="F42" s="15">
-        <v>308.29739266682583</v>
+        <v>279.63518746536676</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>77</v>
@@ -11164,25 +11180,25 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="16">
-        <v>925</v>
-      </c>
-      <c r="B43" s="14">
-        <v>3364</v>
+        <v>806</v>
+      </c>
+      <c r="B43" s="33">
+        <v>1219.4499999999998</v>
       </c>
       <c r="C43" s="14">
-        <v>12.4185269898254</v>
+        <v>13.414545807434298</v>
       </c>
       <c r="D43" s="15">
-        <v>245.59144015096757</v>
+        <v>316.41480188568272</v>
       </c>
       <c r="E43" s="15">
-        <v>181.14351331134719</v>
+        <v>208.31774432408119</v>
       </c>
       <c r="F43" s="15">
-        <v>368.09248434152636</v>
+        <v>481.14502439941026</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H43" s="11" t="s">
         <v>67</v>
@@ -11192,20 +11208,20 @@
       <c r="A44" s="16">
         <v>925</v>
       </c>
-      <c r="B44" s="14">
-        <v>3457</v>
+      <c r="B44" s="33">
+        <v>1232.2</v>
       </c>
       <c r="C44" s="14">
-        <v>12.9419365637031</v>
+        <v>12.359012600299</v>
       </c>
       <c r="D44" s="15">
-        <v>465.95874629934917</v>
+        <v>131.44926924702287</v>
       </c>
       <c r="E44" s="15">
-        <v>302.59623516859006</v>
+        <v>103.48824979019165</v>
       </c>
       <c r="F44" s="15">
-        <v>875.99784433935667</v>
+        <v>179.81123346210134</v>
       </c>
       <c r="G44" s="28" t="s">
         <v>77</v>
@@ -11216,25 +11232,25 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="16">
-        <v>925</v>
-      </c>
-      <c r="B45" s="14">
-        <v>3510</v>
+        <v>806</v>
+      </c>
+      <c r="B45" s="33">
+        <v>1234.2</v>
       </c>
       <c r="C45" s="14">
-        <v>14.6529049486532</v>
+        <v>12.964459975620432</v>
       </c>
       <c r="D45" s="15">
-        <v>268.07680715118391</v>
+        <v>281.68818047085563</v>
       </c>
       <c r="E45" s="15">
-        <v>194.2131894070765</v>
+        <v>189.05648839598342</v>
       </c>
       <c r="F45" s="15">
-        <v>440.53341648949203</v>
+        <v>460.21066762984259</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H45" s="11" t="s">
         <v>67</v>
@@ -11244,20 +11260,20 @@
       <c r="A46" s="16">
         <v>925</v>
       </c>
-      <c r="B46" s="14">
-        <v>3522</v>
+      <c r="B46" s="33">
+        <v>1250</v>
       </c>
       <c r="C46" s="14">
-        <v>13.177225823923999</v>
+        <v>11.3339943273101</v>
       </c>
       <c r="D46" s="15">
-        <v>273.09650501028017</v>
+        <v>164.93440087875899</v>
       </c>
       <c r="E46" s="15">
-        <v>198.1730063412038</v>
+        <v>120.40259062281268</v>
       </c>
       <c r="F46" s="15">
-        <v>409.84790822973349</v>
+        <v>232.4124995109072</v>
       </c>
       <c r="G46" s="28" t="s">
         <v>77</v>
@@ -11268,25 +11284,25 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="16">
-        <v>925</v>
-      </c>
-      <c r="B47" s="14">
-        <v>3673</v>
+        <v>806</v>
+      </c>
+      <c r="B47" s="33">
+        <v>1250.74</v>
       </c>
       <c r="C47" s="14">
-        <v>13.2377097800327</v>
+        <v>13.297062127790335</v>
       </c>
       <c r="D47" s="15">
-        <v>206.17518553216226</v>
+        <v>266.61449794156522</v>
       </c>
       <c r="E47" s="15">
-        <v>153.62427937053127</v>
+        <v>181.664016573797</v>
       </c>
       <c r="F47" s="15">
-        <v>279.09623259017565</v>
+        <v>450.00466164231221</v>
       </c>
       <c r="G47" s="28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H47" s="11" t="s">
         <v>67</v>
@@ -11294,25 +11310,25 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="16">
-        <v>925</v>
-      </c>
-      <c r="B48" s="14">
-        <v>3848.5</v>
+        <v>806</v>
+      </c>
+      <c r="B48" s="33">
+        <v>1268.6200000000001</v>
       </c>
       <c r="C48" s="14">
-        <v>12.476425981662301</v>
+        <v>13.476583765862491</v>
       </c>
       <c r="D48" s="15">
-        <v>228.68110196137917</v>
+        <v>262.00970278307233</v>
       </c>
       <c r="E48" s="15">
-        <v>168.15200564927486</v>
+        <v>181.11460761907858</v>
       </c>
       <c r="F48" s="15">
-        <v>333.49775660239339</v>
+        <v>426.01962587761409</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H48" s="11" t="s">
         <v>67</v>
@@ -11322,20 +11338,20 @@
       <c r="A49" s="16">
         <v>925</v>
       </c>
-      <c r="B49" s="14">
-        <v>3985.5</v>
+      <c r="B49" s="33">
+        <v>1272</v>
       </c>
       <c r="C49" s="14">
-        <v>12.754357678142799</v>
+        <v>11.897122597765501</v>
       </c>
       <c r="D49" s="15">
-        <v>274.56167489048988</v>
+        <v>141.46244215567833</v>
       </c>
       <c r="E49" s="15">
-        <v>199.48071044532861</v>
+        <v>104.46979786087492</v>
       </c>
       <c r="F49" s="15">
-        <v>434.32146821565914</v>
+        <v>208.8057785450807</v>
       </c>
       <c r="G49" s="28" t="s">
         <v>77</v>
@@ -11348,20 +11364,20 @@
       <c r="A50" s="16">
         <v>925</v>
       </c>
-      <c r="B50" s="14">
-        <v>4106.2</v>
+      <c r="B50" s="33">
+        <v>1284.5999999999999</v>
       </c>
       <c r="C50" s="14">
-        <v>13.241517537281799</v>
+        <v>11.507072177741099</v>
       </c>
       <c r="D50" s="15">
-        <v>388.94097230676897</v>
+        <v>212.16453739433709</v>
       </c>
       <c r="E50" s="15">
-        <v>268.32540565959454</v>
+        <v>158.64405274854889</v>
       </c>
       <c r="F50" s="15">
-        <v>591.57024843898148</v>
+        <v>320.59550490789303</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>77</v>
@@ -11372,25 +11388,25 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="16">
-        <v>925</v>
-      </c>
-      <c r="B51" s="14">
-        <v>4447.5</v>
+        <v>999</v>
+      </c>
+      <c r="B51" s="33">
+        <v>1300</v>
       </c>
       <c r="C51" s="14">
-        <v>14.162512046216101</v>
+        <v>11.001631726612393</v>
       </c>
       <c r="D51" s="15">
-        <v>320.76698203520544</v>
+        <v>244.34518542259715</v>
       </c>
       <c r="E51" s="15">
-        <v>223.87320244498881</v>
+        <v>176.00095846369771</v>
       </c>
       <c r="F51" s="15">
-        <v>501.89580048153164</v>
+        <v>355.95139937970362</v>
       </c>
       <c r="G51" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H51" s="11" t="s">
         <v>67</v>
@@ -11398,25 +11414,25 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="16">
-        <v>925</v>
-      </c>
-      <c r="B52" s="14">
-        <v>4776.2</v>
+        <v>806</v>
+      </c>
+      <c r="B52" s="33">
+        <v>1317.79</v>
       </c>
       <c r="C52" s="14">
-        <v>13.6560709774636</v>
+        <v>12.9228867024647</v>
       </c>
       <c r="D52" s="15">
-        <v>401.20081502907669</v>
+        <v>254.25497131209852</v>
       </c>
       <c r="E52" s="15">
-        <v>270.30551465865938</v>
+        <v>174.60425617567992</v>
       </c>
       <c r="F52" s="15">
-        <v>675.8210706597805</v>
+        <v>406.38555886395824</v>
       </c>
       <c r="G52" s="28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H52" s="11" t="s">
         <v>67</v>
@@ -11426,20 +11442,20 @@
       <c r="A53" s="16">
         <v>925</v>
       </c>
-      <c r="B53" s="14">
-        <v>7150</v>
+      <c r="B53" s="33">
+        <v>1351.2</v>
       </c>
       <c r="C53" s="14">
-        <v>14.2451137513935</v>
+        <v>12.563843736403101</v>
       </c>
       <c r="D53" s="15">
-        <v>266.57149012002776</v>
+        <v>155.31469585405293</v>
       </c>
       <c r="E53" s="15">
-        <v>190.19914115802717</v>
+        <v>119.59731611091783</v>
       </c>
       <c r="F53" s="15">
-        <v>422.54847678545622</v>
+        <v>224.15522598059837</v>
       </c>
       <c r="G53" s="28" t="s">
         <v>77</v>
@@ -11450,25 +11466,25 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="16">
-        <v>925</v>
-      </c>
-      <c r="B54" s="14">
-        <v>14100</v>
+        <v>999</v>
+      </c>
+      <c r="B54" s="33">
+        <v>1500</v>
       </c>
       <c r="C54" s="14">
-        <v>13.1698122975739</v>
+        <v>11.385471343843268</v>
       </c>
       <c r="D54" s="15">
-        <v>641.6373089342195</v>
+        <v>224.14587586012314</v>
       </c>
       <c r="E54" s="15">
-        <v>377.02119493402665</v>
+        <v>161.77158560785762</v>
       </c>
       <c r="F54" s="15">
-        <v>1171.688199008275</v>
+        <v>332.23093043294483</v>
       </c>
       <c r="G54" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H54" s="11" t="s">
         <v>67</v>
@@ -11478,20 +11494,20 @@
       <c r="A55" s="16">
         <v>925</v>
       </c>
-      <c r="B55" s="14">
-        <v>14740</v>
+      <c r="B55" s="33">
+        <v>1640.7</v>
       </c>
       <c r="C55" s="14">
-        <v>15.487612035419</v>
+        <v>11.8097350423938</v>
       </c>
       <c r="D55" s="15">
-        <v>493.0524717913064</v>
+        <v>170.70548597038103</v>
       </c>
       <c r="E55" s="15">
-        <v>335.2671742538439</v>
+        <v>132.53725056020281</v>
       </c>
       <c r="F55" s="15">
-        <v>824.62800230039306</v>
+        <v>242.12450129169659</v>
       </c>
       <c r="G55" s="28" t="s">
         <v>77</v>
@@ -11502,25 +11518,25 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="16">
-        <v>925</v>
-      </c>
-      <c r="B56" s="14">
-        <v>15840</v>
+        <v>806</v>
+      </c>
+      <c r="B56" s="33">
+        <v>1655.28</v>
       </c>
       <c r="C56" s="14">
-        <v>14.7899216990992</v>
+        <v>13.330021658832759</v>
       </c>
       <c r="D56" s="15">
-        <v>489.52528939899793</v>
+        <v>243.17022344144277</v>
       </c>
       <c r="E56" s="15">
-        <v>328.29326972677421</v>
+        <v>164.63900945633898</v>
       </c>
       <c r="F56" s="15">
-        <v>848.4996726937934</v>
+        <v>395.01858103376105</v>
       </c>
       <c r="G56" s="28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H56" s="11" t="s">
         <v>67</v>
@@ -11530,20 +11546,20 @@
       <c r="A57" s="16">
         <v>925</v>
       </c>
-      <c r="B57" s="14">
-        <v>16820</v>
+      <c r="B57" s="33">
+        <v>1729.5</v>
       </c>
       <c r="C57" s="14">
-        <v>14.763701689407499</v>
+        <v>11.9916826650219</v>
       </c>
       <c r="D57" s="15">
-        <v>532.88954333099616</v>
+        <v>160.86815009112667</v>
       </c>
       <c r="E57" s="15">
-        <v>367.43634638171261</v>
+        <v>122.16644681117877</v>
       </c>
       <c r="F57" s="15">
-        <v>884.60112536336544</v>
+        <v>225.74780887369425</v>
       </c>
       <c r="G57" s="28" t="s">
         <v>77</v>
@@ -11554,25 +11570,25 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="16">
-        <v>925</v>
-      </c>
-      <c r="B58" s="14">
-        <v>18260</v>
+        <v>806</v>
+      </c>
+      <c r="B58" s="33">
+        <v>1749.25</v>
       </c>
       <c r="C58" s="14">
-        <v>15.011454653359101</v>
+        <v>12.913799461284016</v>
       </c>
       <c r="D58" s="15">
-        <v>310.94757042177912</v>
+        <v>237.00333295592307</v>
       </c>
       <c r="E58" s="15">
-        <v>223.08496577737225</v>
+        <v>164.92039508626701</v>
       </c>
       <c r="F58" s="15">
-        <v>490.57597334483802</v>
+        <v>367.59247667803584</v>
       </c>
       <c r="G58" s="28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H58" s="11" t="s">
         <v>67</v>
@@ -11580,25 +11596,25 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="16">
-        <v>925</v>
-      </c>
-      <c r="B59" s="14">
-        <v>20300</v>
+        <v>999</v>
+      </c>
+      <c r="B59" s="33">
+        <v>1751.9</v>
       </c>
       <c r="C59" s="14">
-        <v>13.552806486881501</v>
+        <v>11.180002398217814</v>
       </c>
       <c r="D59" s="15">
-        <v>814.76804884683168</v>
+        <v>191.87943936963191</v>
       </c>
       <c r="E59" s="15">
-        <v>519.29388591102497</v>
+        <v>144.91590012345719</v>
       </c>
       <c r="F59" s="15">
-        <v>1523.9442909538152</v>
+        <v>281.96881306690392</v>
       </c>
       <c r="G59" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H59" s="11" t="s">
         <v>67</v>
@@ -11606,25 +11622,25 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="16">
-        <v>925</v>
-      </c>
-      <c r="B60" s="14">
-        <v>22940</v>
+        <v>806</v>
+      </c>
+      <c r="B60" s="33">
+        <v>1800.35</v>
       </c>
       <c r="C60" s="14">
-        <v>16.126884524716701</v>
+        <v>13.199740625939796</v>
       </c>
       <c r="D60" s="15">
-        <v>536.40351716083092</v>
+        <v>238.43919803883961</v>
       </c>
       <c r="E60" s="15">
-        <v>371.89967817003634</v>
+        <v>163.42348795741606</v>
       </c>
       <c r="F60" s="15">
-        <v>930.82813945424653</v>
+        <v>363.81667366427013</v>
       </c>
       <c r="G60" s="28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H60" s="11" t="s">
         <v>67</v>
@@ -11632,25 +11648,25 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="16">
-        <v>925</v>
-      </c>
-      <c r="B61" s="14">
-        <v>23480</v>
+        <v>806</v>
+      </c>
+      <c r="B61" s="33">
+        <v>1854.1399999999999</v>
       </c>
       <c r="C61" s="14">
-        <v>15.0336420896211</v>
+        <v>13.463012731272974</v>
       </c>
       <c r="D61" s="15">
-        <v>562.70117631986852</v>
+        <v>281.52208494716166</v>
       </c>
       <c r="E61" s="15">
-        <v>385.88967889888954</v>
+        <v>195.8220282761184</v>
       </c>
       <c r="F61" s="15">
-        <v>1049.4194704380325</v>
+        <v>476.3878160099863</v>
       </c>
       <c r="G61" s="28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H61" s="11" t="s">
         <v>67</v>
@@ -11658,25 +11674,25 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="16">
-        <v>999</v>
-      </c>
-      <c r="B62" s="14">
-        <v>199.9</v>
+        <v>806</v>
+      </c>
+      <c r="B62" s="33">
+        <v>1907.9299999999998</v>
       </c>
       <c r="C62" s="14">
-        <v>12.148239890773738</v>
+        <v>13.285914588867399</v>
       </c>
       <c r="D62" s="15">
-        <v>190.44396309733906</v>
+        <v>292.60600091806691</v>
       </c>
       <c r="E62" s="15">
-        <v>136.42672817963495</v>
+        <v>200.87492827193617</v>
       </c>
       <c r="F62" s="15">
-        <v>285.27621482881256</v>
+        <v>480.61740125540388</v>
       </c>
       <c r="G62" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H62" s="11" t="s">
         <v>67</v>
@@ -11684,25 +11700,25 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="16">
-        <v>999</v>
-      </c>
-      <c r="B63" s="14">
-        <v>253.45000000000002</v>
+        <v>925</v>
+      </c>
+      <c r="B63" s="33">
+        <v>1965</v>
       </c>
       <c r="C63" s="14">
-        <v>10.906192051933772</v>
+        <v>11.8296583803446</v>
       </c>
       <c r="D63" s="15">
-        <v>200.27423148518949</v>
+        <v>216.25866475782956</v>
       </c>
       <c r="E63" s="15">
-        <v>147.62953432144536</v>
+        <v>157.58948978663375</v>
       </c>
       <c r="F63" s="15">
-        <v>290.12955107778538</v>
+        <v>311.60144492506271</v>
       </c>
       <c r="G63" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H63" s="11" t="s">
         <v>67</v>
@@ -11710,25 +11726,25 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="16">
-        <v>999</v>
-      </c>
-      <c r="B64" s="14">
-        <v>456.3</v>
+        <v>806</v>
+      </c>
+      <c r="B64" s="33">
+        <v>1992.69</v>
       </c>
       <c r="C64" s="14">
-        <v>10.963155823350945</v>
+        <v>13.653645477052132</v>
       </c>
       <c r="D64" s="15">
-        <v>163.00919396940256</v>
+        <v>299.69904402266985</v>
       </c>
       <c r="E64" s="15">
-        <v>121.2278636335427</v>
+        <v>205.55478373568607</v>
       </c>
       <c r="F64" s="15">
-        <v>244.97069677305504</v>
+        <v>497.71790261761208</v>
       </c>
       <c r="G64" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H64" s="11" t="s">
         <v>67</v>
@@ -11736,25 +11752,25 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="16">
-        <v>999</v>
-      </c>
-      <c r="B65" s="14">
-        <v>900</v>
+        <v>925</v>
+      </c>
+      <c r="B65" s="33">
+        <v>2092.6</v>
       </c>
       <c r="C65" s="14">
-        <v>10.451574723596924</v>
+        <v>12.6154095436932</v>
       </c>
       <c r="D65" s="15">
-        <v>160.97731103638171</v>
+        <v>213.95762560102472</v>
       </c>
       <c r="E65" s="15">
-        <v>116.04586347564522</v>
+        <v>159.09983767601159</v>
       </c>
       <c r="F65" s="15">
-        <v>224.34656387064825</v>
+        <v>306.20653547943158</v>
       </c>
       <c r="G65" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H65" s="11" t="s">
         <v>67</v>
@@ -11764,20 +11780,20 @@
       <c r="A66" s="16">
         <v>999</v>
       </c>
-      <c r="B66" s="14">
-        <v>1000</v>
+      <c r="B66" s="33">
+        <v>2109</v>
       </c>
       <c r="C66" s="14">
-        <v>10.304686598704205</v>
+        <v>10.784193451262913</v>
       </c>
       <c r="D66" s="15">
-        <v>225.49798618086442</v>
+        <v>220.27420525864409</v>
       </c>
       <c r="E66" s="15">
-        <v>164.33129683841645</v>
+        <v>159.64697371072796</v>
       </c>
       <c r="F66" s="15">
-        <v>351.93779161986328</v>
+        <v>319.03635912739855</v>
       </c>
       <c r="G66" s="28" t="s">
         <v>78</v>
@@ -11788,25 +11804,25 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="16">
-        <v>999</v>
-      </c>
-      <c r="B67" s="14">
-        <v>1200</v>
+        <v>925</v>
+      </c>
+      <c r="B67" s="33">
+        <v>2191.5</v>
       </c>
       <c r="C67" s="14">
-        <v>11.229086495062601</v>
+        <v>12.5618480289376</v>
       </c>
       <c r="D67" s="15">
-        <v>212.24043861623653</v>
+        <v>244.41690618687858</v>
       </c>
       <c r="E67" s="15">
-        <v>153.29907366540903</v>
+        <v>177.41228279842974</v>
       </c>
       <c r="F67" s="15">
-        <v>326.92525435377593</v>
+        <v>364.91801949107469</v>
       </c>
       <c r="G67" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H67" s="11" t="s">
         <v>67</v>
@@ -11814,25 +11830,25 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="16">
-        <v>999</v>
-      </c>
-      <c r="B68" s="14">
-        <v>1300</v>
+        <v>806</v>
+      </c>
+      <c r="B68" s="33">
+        <v>2226.9100000000003</v>
       </c>
       <c r="C68" s="14">
-        <v>11.001631726612393</v>
+        <v>13.74408022109583</v>
       </c>
       <c r="D68" s="15">
-        <v>244.34518542259715</v>
+        <v>303.52408074839911</v>
       </c>
       <c r="E68" s="15">
-        <v>176.00095846369771</v>
+        <v>208.92131860823906</v>
       </c>
       <c r="F68" s="15">
-        <v>355.95139937970362</v>
+        <v>480.35474104821537</v>
       </c>
       <c r="G68" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H68" s="11" t="s">
         <v>67</v>
@@ -11840,25 +11856,25 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="16">
-        <v>999</v>
-      </c>
-      <c r="B69" s="14">
-        <v>1500</v>
+        <v>806</v>
+      </c>
+      <c r="B69" s="33">
+        <v>2279.81</v>
       </c>
       <c r="C69" s="14">
-        <v>11.385471343843268</v>
+        <v>13.150656772787528</v>
       </c>
       <c r="D69" s="15">
-        <v>224.14587586012314</v>
+        <v>245.8079674760348</v>
       </c>
       <c r="E69" s="15">
-        <v>161.77158560785762</v>
+        <v>163.84043612179872</v>
       </c>
       <c r="F69" s="15">
-        <v>332.23093043294483</v>
+        <v>397.5523779512186</v>
       </c>
       <c r="G69" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H69" s="11" t="s">
         <v>67</v>
@@ -11866,25 +11882,25 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="16">
-        <v>999</v>
-      </c>
-      <c r="B70" s="14">
-        <v>1751.9</v>
+        <v>925</v>
+      </c>
+      <c r="B70" s="33">
+        <v>2296.8000000000002</v>
       </c>
       <c r="C70" s="14">
-        <v>11.180002398217814</v>
+        <v>12.942292229185499</v>
       </c>
       <c r="D70" s="15">
-        <v>191.87943936963191</v>
+        <v>262.06492608105179</v>
       </c>
       <c r="E70" s="15">
-        <v>144.91590012345719</v>
+        <v>191.54383905216446</v>
       </c>
       <c r="F70" s="15">
-        <v>281.96881306690392</v>
+        <v>394.77128170368451</v>
       </c>
       <c r="G70" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H70" s="11" t="s">
         <v>67</v>
@@ -11894,20 +11910,20 @@
       <c r="A71" s="16">
         <v>999</v>
       </c>
-      <c r="B71" s="14">
-        <v>2109</v>
+      <c r="B71" s="33">
+        <v>2309.1999999999998</v>
       </c>
       <c r="C71" s="14">
-        <v>10.784193451262913</v>
+        <v>11.093929224151644</v>
       </c>
       <c r="D71" s="15">
-        <v>220.27420525864409</v>
+        <v>200.7772637167854</v>
       </c>
       <c r="E71" s="15">
-        <v>159.64697371072796</v>
+        <v>149.22717625730598</v>
       </c>
       <c r="F71" s="15">
-        <v>319.03635912739855</v>
+        <v>298.47669223885134</v>
       </c>
       <c r="G71" s="28" t="s">
         <v>78</v>
@@ -11918,25 +11934,25 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="16">
-        <v>999</v>
-      </c>
-      <c r="B72" s="14">
-        <v>2309.1999999999998</v>
+        <v>806</v>
+      </c>
+      <c r="B72" s="33">
+        <v>2357.58</v>
       </c>
       <c r="C72" s="14">
-        <v>11.093929224151644</v>
+        <v>13.678368264794537</v>
       </c>
       <c r="D72" s="15">
-        <v>200.7772637167854</v>
+        <v>337.01778478130507</v>
       </c>
       <c r="E72" s="15">
-        <v>149.22717625730598</v>
+        <v>229.72610517708216</v>
       </c>
       <c r="F72" s="15">
-        <v>298.47669223885134</v>
+        <v>532.18277583380961</v>
       </c>
       <c r="G72" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H72" s="11" t="s">
         <v>67</v>
@@ -11944,25 +11960,25 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="16">
-        <v>999</v>
-      </c>
-      <c r="B73" s="14">
-        <v>2592</v>
+        <v>925</v>
+      </c>
+      <c r="B73" s="33">
+        <v>2402</v>
       </c>
       <c r="C73" s="14">
-        <v>10.857413566476071</v>
+        <v>13.119716667994201</v>
       </c>
       <c r="D73" s="15">
-        <v>245.64107896568939</v>
+        <v>230.05147464184785</v>
       </c>
       <c r="E73" s="15">
-        <v>176.4127888355672</v>
+        <v>169.03621902462297</v>
       </c>
       <c r="F73" s="15">
-        <v>364.71740856593135</v>
+        <v>342.53549217330351</v>
       </c>
       <c r="G73" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H73" s="11" t="s">
         <v>67</v>
@@ -11970,25 +11986,25 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="16">
-        <v>999</v>
-      </c>
-      <c r="B74" s="14">
-        <v>2785</v>
+        <v>806</v>
+      </c>
+      <c r="B74" s="33">
+        <v>2404.96</v>
       </c>
       <c r="C74" s="14">
-        <v>11.380764758143425</v>
+        <v>14.989275544056204</v>
       </c>
       <c r="D74" s="15">
-        <v>212.75381592871162</v>
+        <v>525.99227539331901</v>
       </c>
       <c r="E74" s="15">
-        <v>158.62877147052924</v>
+        <v>343.63780334376776</v>
       </c>
       <c r="F74" s="15">
-        <v>306.49434859242893</v>
+        <v>934.28055892766793</v>
       </c>
       <c r="G74" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H74" s="11" t="s">
         <v>67</v>
@@ -11996,25 +12012,25 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="16">
-        <v>999</v>
-      </c>
-      <c r="B75" s="14">
-        <v>2809.9600000000005</v>
+        <v>806</v>
+      </c>
+      <c r="B75" s="33">
+        <v>2457.98</v>
       </c>
       <c r="C75" s="14">
-        <v>11.06093409903397</v>
+        <v>14.518354321040201</v>
       </c>
       <c r="D75" s="15">
-        <v>259.84276341282668</v>
+        <v>387.34284338525771</v>
       </c>
       <c r="E75" s="15">
-        <v>183.7687885034955</v>
+        <v>252.43332660385875</v>
       </c>
       <c r="F75" s="15">
-        <v>399.72231388031707</v>
+        <v>647.69896841527782</v>
       </c>
       <c r="G75" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H75" s="11" t="s">
         <v>67</v>
@@ -12022,25 +12038,25 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="16">
-        <v>999</v>
-      </c>
-      <c r="B76" s="14">
-        <v>2821.7</v>
+        <v>806</v>
+      </c>
+      <c r="B76" s="33">
+        <v>2501.6</v>
       </c>
       <c r="C76" s="14">
-        <v>10.948289257519228</v>
+        <v>14.447167635593612</v>
       </c>
       <c r="D76" s="15">
-        <v>251.50848908822152</v>
+        <v>445.73486166148018</v>
       </c>
       <c r="E76" s="15">
-        <v>183.92141112500065</v>
+        <v>299.15024693545968</v>
       </c>
       <c r="F76" s="15">
-        <v>362.59138007325066</v>
+        <v>770.28311937393016</v>
       </c>
       <c r="G76" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H76" s="11" t="s">
         <v>67</v>
@@ -12048,25 +12064,25 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="16">
-        <v>999</v>
-      </c>
-      <c r="B77" s="14">
-        <v>2851.49999999999</v>
+        <v>806</v>
+      </c>
+      <c r="B77" s="33">
+        <v>2523.58</v>
       </c>
       <c r="C77" s="14">
-        <v>11.562701156964339</v>
+        <v>13.873956772801797</v>
       </c>
       <c r="D77" s="15">
-        <v>234.93234665317345</v>
+        <v>308.46666962130826</v>
       </c>
       <c r="E77" s="15">
-        <v>173.23471944827472</v>
+        <v>214.85599352680049</v>
       </c>
       <c r="F77" s="15">
-        <v>361.69363041267098</v>
+        <v>533.43088263848813</v>
       </c>
       <c r="G77" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H77" s="11" t="s">
         <v>67</v>
@@ -12074,25 +12090,25 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="16">
-        <v>999</v>
-      </c>
-      <c r="B78" s="14">
-        <v>2861.6</v>
+        <v>806</v>
+      </c>
+      <c r="B78" s="33">
+        <v>2532.1999999999998</v>
       </c>
       <c r="C78" s="14">
-        <v>11.296254419074447</v>
+        <v>14.277387095353232</v>
       </c>
       <c r="D78" s="15">
-        <v>170.25780120710655</v>
+        <v>430.09699464157575</v>
       </c>
       <c r="E78" s="15">
-        <v>124.62237778824149</v>
+        <v>285.90778689006891</v>
       </c>
       <c r="F78" s="15">
-        <v>251.85598951258547</v>
+        <v>730.71101747768409</v>
       </c>
       <c r="G78" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H78" s="11" t="s">
         <v>67</v>
@@ -12100,25 +12116,25 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="16">
-        <v>999</v>
-      </c>
-      <c r="B79" s="14">
-        <v>2890</v>
+        <v>925</v>
+      </c>
+      <c r="B79" s="33">
+        <v>2587</v>
       </c>
       <c r="C79" s="14">
-        <v>11.428814647796326</v>
+        <v>12.7802964202619</v>
       </c>
       <c r="D79" s="15">
-        <v>262.8494098644328</v>
+        <v>155.41764779009648</v>
       </c>
       <c r="E79" s="15">
-        <v>191.54963661361151</v>
+        <v>117.11128258376968</v>
       </c>
       <c r="F79" s="15">
-        <v>433.17303406821037</v>
+        <v>226.71168206891588</v>
       </c>
       <c r="G79" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H79" s="11" t="s">
         <v>67</v>
@@ -12128,20 +12144,20 @@
       <c r="A80" s="16">
         <v>999</v>
       </c>
-      <c r="B80" s="14">
-        <v>2901.63333333333</v>
+      <c r="B80" s="33">
+        <v>2592</v>
       </c>
       <c r="C80" s="14">
-        <v>10.442527493251585</v>
+        <v>10.857413566476071</v>
       </c>
       <c r="D80" s="15">
-        <v>197.98170427261957</v>
+        <v>245.64107896568939</v>
       </c>
       <c r="E80" s="15">
-        <v>145.13360876672337</v>
+        <v>176.4127888355672</v>
       </c>
       <c r="F80" s="15">
-        <v>281.53229271936658</v>
+        <v>364.71740856593135</v>
       </c>
       <c r="G80" s="28" t="s">
         <v>78</v>
@@ -12152,25 +12168,25 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="16">
-        <v>999</v>
-      </c>
-      <c r="B81" s="14">
-        <v>2917.37</v>
+        <v>925</v>
+      </c>
+      <c r="B81" s="33">
+        <v>2604.3000000000002</v>
       </c>
       <c r="C81" s="14">
-        <v>10.844045419701853</v>
+        <v>11.7508323258619</v>
       </c>
       <c r="D81" s="15">
-        <v>175.55799130398356</v>
+        <v>180.26028044750103</v>
       </c>
       <c r="E81" s="15">
-        <v>128.98169972250378</v>
+        <v>132.44399105140587</v>
       </c>
       <c r="F81" s="15">
-        <v>252.04289337343599</v>
+        <v>255.31138301024416</v>
       </c>
       <c r="G81" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H81" s="11" t="s">
         <v>67</v>
@@ -12178,25 +12194,25 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="16">
-        <v>999</v>
-      </c>
-      <c r="B82" s="14">
-        <v>2926.7</v>
+        <v>806</v>
+      </c>
+      <c r="B82" s="33">
+        <v>2608.4700000000003</v>
       </c>
       <c r="C82" s="14">
-        <v>10.542996334595323</v>
+        <v>13.748365489054439</v>
       </c>
       <c r="D82" s="15">
-        <v>326.7621411534335</v>
+        <v>293.94133114561618</v>
       </c>
       <c r="E82" s="15">
-        <v>223.81352183091408</v>
+        <v>198.71676085238036</v>
       </c>
       <c r="F82" s="15">
-        <v>491.18328702954085</v>
+        <v>454.87224885800811</v>
       </c>
       <c r="G82" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H82" s="11" t="s">
         <v>67</v>
@@ -12204,25 +12220,25 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="16">
-        <v>999</v>
-      </c>
-      <c r="B83" s="14">
-        <v>2936</v>
+        <v>806</v>
+      </c>
+      <c r="B83" s="33">
+        <v>2704.96</v>
       </c>
       <c r="C83" s="14">
-        <v>11.563749410523405</v>
+        <v>13.645498085686475</v>
       </c>
       <c r="D83" s="15">
-        <v>342.08521115528208</v>
+        <v>296.47093588894893</v>
       </c>
       <c r="E83" s="15">
-        <v>242.06984568537987</v>
+        <v>208.35470522902307</v>
       </c>
       <c r="F83" s="15">
-        <v>545.43220173740031</v>
+        <v>517.76864936480945</v>
       </c>
       <c r="G83" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H83" s="11" t="s">
         <v>67</v>
@@ -12230,25 +12246,25 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="16">
-        <v>999</v>
-      </c>
-      <c r="B84" s="14">
-        <v>2943.64</v>
+        <v>925</v>
+      </c>
+      <c r="B84" s="33">
+        <v>2718</v>
       </c>
       <c r="C84" s="14">
-        <v>12.182012661726249</v>
+        <v>12.1340345639598</v>
       </c>
       <c r="D84" s="15">
-        <v>130.40058934655403</v>
+        <v>154.51938607783347</v>
       </c>
       <c r="E84" s="15">
-        <v>100.76167696294962</v>
+        <v>118.61240801223717</v>
       </c>
       <c r="F84" s="15">
-        <v>178.50844948275437</v>
+        <v>224.50382648219471</v>
       </c>
       <c r="G84" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H84" s="11" t="s">
         <v>67</v>
@@ -12258,20 +12274,20 @@
       <c r="A85" s="16">
         <v>999</v>
       </c>
-      <c r="B85" s="14">
-        <v>2980.7</v>
+      <c r="B85" s="33">
+        <v>2785</v>
       </c>
       <c r="C85" s="14">
-        <v>9.722713523980353</v>
+        <v>11.380764758143425</v>
       </c>
       <c r="D85" s="15">
-        <v>120.08211800272296</v>
+        <v>212.75381592871162</v>
       </c>
       <c r="E85" s="15">
-        <v>91.732868616250897</v>
+        <v>158.62877147052924</v>
       </c>
       <c r="F85" s="15">
-        <v>161.23286744094389</v>
+        <v>306.49434859242893</v>
       </c>
       <c r="G85" s="28" t="s">
         <v>78</v>
@@ -12282,25 +12298,25 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="16">
-        <v>999</v>
-      </c>
-      <c r="B86" s="14">
-        <v>2985</v>
+        <v>806</v>
+      </c>
+      <c r="B86" s="33">
+        <v>2804.98</v>
       </c>
       <c r="C86" s="14">
-        <v>12.238249590001526</v>
+        <v>14.445646694736817</v>
       </c>
       <c r="D86" s="15">
-        <v>271.29523639135243</v>
+        <v>445.68123530647938</v>
       </c>
       <c r="E86" s="15">
-        <v>193.32754802820938</v>
+        <v>281.42540570448051</v>
       </c>
       <c r="F86" s="15">
-        <v>425.00703693553294</v>
+        <v>753.20775538164571</v>
       </c>
       <c r="G86" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H86" s="11" t="s">
         <v>67</v>
@@ -12310,20 +12326,20 @@
       <c r="A87" s="16">
         <v>999</v>
       </c>
-      <c r="B87" s="14">
-        <v>3002.1888888888798</v>
+      <c r="B87" s="33">
+        <v>2809.9600000000005</v>
       </c>
       <c r="C87" s="14">
-        <v>9.4989195989763076</v>
+        <v>11.06093409903397</v>
       </c>
       <c r="D87" s="15">
-        <v>152.89794820521985</v>
+        <v>259.84276341282668</v>
       </c>
       <c r="E87" s="15">
-        <v>113.27291708916943</v>
+        <v>183.7687885034955</v>
       </c>
       <c r="F87" s="15">
-        <v>218.30261088763569</v>
+        <v>399.72231388031707</v>
       </c>
       <c r="G87" s="28" t="s">
         <v>78</v>
@@ -12336,20 +12352,20 @@
       <c r="A88" s="16">
         <v>999</v>
       </c>
-      <c r="B88" s="14">
-        <v>3016.1777777777702</v>
+      <c r="B88" s="33">
+        <v>2821.7</v>
       </c>
       <c r="C88" s="14">
-        <v>10.157141083306342</v>
+        <v>10.948289257519228</v>
       </c>
       <c r="D88" s="15">
-        <v>137.90171859986566</v>
+        <v>251.50848908822152</v>
       </c>
       <c r="E88" s="15">
-        <v>107.92455883156661</v>
+        <v>183.92141112500065</v>
       </c>
       <c r="F88" s="15">
-        <v>184.47213638820426</v>
+        <v>362.59138007325066</v>
       </c>
       <c r="G88" s="28" t="s">
         <v>78</v>
@@ -12362,20 +12378,20 @@
       <c r="A89" s="16">
         <v>999</v>
       </c>
-      <c r="B89" s="14">
-        <v>3034.14</v>
+      <c r="B89" s="33">
+        <v>2851.49999999999</v>
       </c>
       <c r="C89" s="14">
-        <v>9.8591231133109414</v>
+        <v>11.562701156964339</v>
       </c>
       <c r="D89" s="15">
-        <v>208.0409849395885</v>
+        <v>234.93234665317345</v>
       </c>
       <c r="E89" s="15">
-        <v>154.61980624573414</v>
+        <v>173.23471944827472</v>
       </c>
       <c r="F89" s="15">
-        <v>306.51968767776651</v>
+        <v>361.69363041267098</v>
       </c>
       <c r="G89" s="28" t="s">
         <v>78</v>
@@ -12388,20 +12404,20 @@
       <c r="A90" s="16">
         <v>999</v>
       </c>
-      <c r="B90" s="14">
-        <v>3067</v>
+      <c r="B90" s="33">
+        <v>2861.6</v>
       </c>
       <c r="C90" s="14">
-        <v>11.639288238464607</v>
+        <v>11.296254419074447</v>
       </c>
       <c r="D90" s="15">
-        <v>250.98346236444345</v>
+        <v>170.25780120710655</v>
       </c>
       <c r="E90" s="15">
-        <v>185.16121463749815</v>
+        <v>124.62237778824149</v>
       </c>
       <c r="F90" s="15">
-        <v>390.41258815305491</v>
+        <v>251.85598951258547</v>
       </c>
       <c r="G90" s="28" t="s">
         <v>78</v>
@@ -12414,20 +12430,20 @@
       <c r="A91" s="16">
         <v>999</v>
       </c>
-      <c r="B91" s="14">
-        <v>3069.1444444444401</v>
+      <c r="B91" s="33">
+        <v>2890</v>
       </c>
       <c r="C91" s="14">
-        <v>10.946873007768421</v>
+        <v>11.428814647796326</v>
       </c>
       <c r="D91" s="15">
-        <v>116.11329998712945</v>
+        <v>262.8494098644328</v>
       </c>
       <c r="E91" s="15">
-        <v>88.450135136231253</v>
+        <v>191.54963661361151</v>
       </c>
       <c r="F91" s="15">
-        <v>165.13001198464292</v>
+        <v>433.17303406821037</v>
       </c>
       <c r="G91" s="28" t="s">
         <v>78</v>
@@ -12438,25 +12454,25 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="16">
-        <v>999</v>
-      </c>
-      <c r="B92" s="14">
-        <v>3087.1666666666601</v>
+        <v>806</v>
+      </c>
+      <c r="B92" s="33">
+        <v>2898.39</v>
       </c>
       <c r="C92" s="14">
-        <v>9.4020211402672249</v>
+        <v>14.324818658543633</v>
       </c>
       <c r="D92" s="15">
-        <v>165.26142470184641</v>
+        <v>402.79069462145367</v>
       </c>
       <c r="E92" s="15">
-        <v>121.62944021977165</v>
+        <v>277.22658925287863</v>
       </c>
       <c r="F92" s="15">
-        <v>226.15992561529248</v>
+        <v>676.24337457414276</v>
       </c>
       <c r="G92" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H92" s="11" t="s">
         <v>67</v>
@@ -12466,20 +12482,20 @@
       <c r="A93" s="16">
         <v>999</v>
       </c>
-      <c r="B93" s="14">
-        <v>3117.3</v>
+      <c r="B93" s="33">
+        <v>2901.63333333333</v>
       </c>
       <c r="C93" s="14">
-        <v>11.393256125936002</v>
+        <v>10.442527493251585</v>
       </c>
       <c r="D93" s="15">
-        <v>291.87123017021992</v>
+        <v>197.98170427261957</v>
       </c>
       <c r="E93" s="15">
-        <v>202.27600275198031</v>
+        <v>145.13360876672337</v>
       </c>
       <c r="F93" s="15">
-        <v>449.08057352480154</v>
+        <v>281.53229271936658</v>
       </c>
       <c r="G93" s="28" t="s">
         <v>78</v>
@@ -12492,20 +12508,20 @@
       <c r="A94" s="16">
         <v>999</v>
       </c>
-      <c r="B94" s="14">
-        <v>3172</v>
+      <c r="B94" s="33">
+        <v>2917.37</v>
       </c>
       <c r="C94" s="14">
-        <v>11.838473486327494</v>
+        <v>10.844045419701853</v>
       </c>
       <c r="D94" s="15">
-        <v>266.4362124904419</v>
+        <v>175.55799130398356</v>
       </c>
       <c r="E94" s="15">
-        <v>187.89491226029196</v>
+        <v>128.98169972250378</v>
       </c>
       <c r="F94" s="15">
-        <v>440.40993407735641</v>
+        <v>252.04289337343599</v>
       </c>
       <c r="G94" s="28" t="s">
         <v>78</v>
@@ -12518,20 +12534,20 @@
       <c r="A95" s="16">
         <v>999</v>
       </c>
-      <c r="B95" s="14">
-        <v>3229</v>
+      <c r="B95" s="33">
+        <v>2926.7</v>
       </c>
       <c r="C95" s="14">
-        <v>11.59672998189909</v>
+        <v>10.542996334595323</v>
       </c>
       <c r="D95" s="15">
-        <v>375.24775674198662</v>
+        <v>326.7621411534335</v>
       </c>
       <c r="E95" s="15">
-        <v>251.03833328516757</v>
+        <v>223.81352183091408</v>
       </c>
       <c r="F95" s="15">
-        <v>592.88116509038537</v>
+        <v>491.18328702954085</v>
       </c>
       <c r="G95" s="28" t="s">
         <v>78</v>
@@ -12544,20 +12560,20 @@
       <c r="A96" s="16">
         <v>999</v>
       </c>
-      <c r="B96" s="14">
-        <v>3624.9000000000005</v>
+      <c r="B96" s="33">
+        <v>2936</v>
       </c>
       <c r="C96" s="14">
-        <v>12.482140542786402</v>
+        <v>11.563749410523405</v>
       </c>
       <c r="D96" s="15">
-        <v>343.8325097757583</v>
+        <v>342.08521115528208</v>
       </c>
       <c r="E96" s="15">
-        <v>246.0859738137811</v>
+        <v>242.06984568537987</v>
       </c>
       <c r="F96" s="15">
-        <v>557.85861741924987</v>
+        <v>545.43220173740031</v>
       </c>
       <c r="G96" s="28" t="s">
         <v>78</v>
@@ -12568,25 +12584,25 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="16">
-        <v>999</v>
-      </c>
-      <c r="B97" s="14">
-        <v>3846.2</v>
+        <v>925</v>
+      </c>
+      <c r="B97" s="33">
+        <v>2940</v>
       </c>
       <c r="C97" s="14">
-        <v>12.249941311452073</v>
+        <v>11.717598345362299</v>
       </c>
       <c r="D97" s="15">
-        <v>230.32976130508672</v>
+        <v>243.57204920051896</v>
       </c>
       <c r="E97" s="15">
-        <v>165.48025626341496</v>
+        <v>180.40683449936242</v>
       </c>
       <c r="F97" s="15">
-        <v>353.58508868000007</v>
+        <v>370.85164970981793</v>
       </c>
       <c r="G97" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H97" s="11" t="s">
         <v>67</v>
@@ -12596,20 +12612,20 @@
       <c r="A98" s="16">
         <v>999</v>
       </c>
-      <c r="B98" s="14">
-        <v>3933.5</v>
+      <c r="B98" s="33">
+        <v>2943.64</v>
       </c>
       <c r="C98" s="14">
-        <v>11.796732434388835</v>
+        <v>12.182012661726249</v>
       </c>
       <c r="D98" s="15">
-        <v>259.9284938928925</v>
+        <v>130.40058934655403</v>
       </c>
       <c r="E98" s="15">
-        <v>187.30121131614888</v>
+        <v>100.76167696294962</v>
       </c>
       <c r="F98" s="15">
-        <v>422.58746739799051</v>
+        <v>178.50844948275437</v>
       </c>
       <c r="G98" s="28" t="s">
         <v>78</v>
@@ -12622,20 +12638,20 @@
       <c r="A99" s="16">
         <v>999</v>
       </c>
-      <c r="B99" s="14">
-        <v>4008.8701171874995</v>
+      <c r="B99" s="33">
+        <v>2980.7</v>
       </c>
       <c r="C99" s="14">
-        <v>12.637002253308662</v>
+        <v>9.722713523980353</v>
       </c>
       <c r="D99" s="15">
-        <v>417.04809459177704</v>
+        <v>120.08211800272296</v>
       </c>
       <c r="E99" s="15">
-        <v>275.18257235724531</v>
+        <v>91.732868616250897</v>
       </c>
       <c r="F99" s="15">
-        <v>702.81950668687477</v>
+        <v>161.23286744094389</v>
       </c>
       <c r="G99" s="28" t="s">
         <v>78</v>
@@ -12648,20 +12664,20 @@
       <c r="A100" s="16">
         <v>999</v>
       </c>
-      <c r="B100" s="14">
-        <v>4027.9999999999995</v>
+      <c r="B100" s="33">
+        <v>2985</v>
       </c>
       <c r="C100" s="14">
-        <v>11.470416553059914</v>
+        <v>12.238249590001526</v>
       </c>
       <c r="D100" s="15">
-        <v>359.83526175252331</v>
+        <v>271.29523639135243</v>
       </c>
       <c r="E100" s="15">
-        <v>256.40194460716407</v>
+        <v>193.32754802820938</v>
       </c>
       <c r="F100" s="15">
-        <v>584.75962321523491</v>
+        <v>425.00703693553294</v>
       </c>
       <c r="G100" s="28" t="s">
         <v>78</v>
@@ -12672,25 +12688,25 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="16">
-        <v>999</v>
-      </c>
-      <c r="B101" s="14">
-        <v>4113.5</v>
+        <v>806</v>
+      </c>
+      <c r="B101" s="33">
+        <v>2997.91</v>
       </c>
       <c r="C101" s="14">
-        <v>12.326335342944583</v>
+        <v>14.673988674555</v>
       </c>
       <c r="D101" s="15">
-        <v>395.04407794241939</v>
+        <v>456.00690729099085</v>
       </c>
       <c r="E101" s="15">
-        <v>271.17302235361086</v>
+        <v>301.3720132185037</v>
       </c>
       <c r="F101" s="15">
-        <v>598.17377187960096</v>
+        <v>759.04278982318215</v>
       </c>
       <c r="G101" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H101" s="11" t="s">
         <v>67</v>
@@ -12700,20 +12716,20 @@
       <c r="A102" s="16">
         <v>999</v>
       </c>
-      <c r="B102" s="14">
-        <v>4342</v>
+      <c r="B102" s="33">
+        <v>3002.1888888888798</v>
       </c>
       <c r="C102" s="14">
-        <v>12.568691246470642</v>
+        <v>9.4989195989763076</v>
       </c>
       <c r="D102" s="15">
-        <v>341.07080740291497</v>
+        <v>152.89794820521985</v>
       </c>
       <c r="E102" s="15">
-        <v>231.78655033725323</v>
+        <v>113.27291708916943</v>
       </c>
       <c r="F102" s="15">
-        <v>533.25533560720544</v>
+        <v>218.30261088763569</v>
       </c>
       <c r="G102" s="28" t="s">
         <v>78</v>
@@ -12726,20 +12742,20 @@
       <c r="A103" s="16">
         <v>999</v>
       </c>
-      <c r="B103" s="14">
-        <v>4433.6000000000004</v>
+      <c r="B103" s="33">
+        <v>3016.1777777777702</v>
       </c>
       <c r="C103" s="14">
-        <v>12.205245906980577</v>
+        <v>10.157141083306342</v>
       </c>
       <c r="D103" s="15">
-        <v>361.93417448600303</v>
+        <v>137.90171859986566</v>
       </c>
       <c r="E103" s="15">
-        <v>253.32012498180387</v>
+        <v>107.92455883156661</v>
       </c>
       <c r="F103" s="15">
-        <v>564.01186395819832</v>
+        <v>184.47213638820426</v>
       </c>
       <c r="G103" s="28" t="s">
         <v>78</v>
@@ -12752,20 +12768,20 @@
       <c r="A104" s="16">
         <v>999</v>
       </c>
-      <c r="B104" s="14">
-        <v>4577.3999999999996</v>
+      <c r="B104" s="33">
+        <v>3034.14</v>
       </c>
       <c r="C104" s="14">
-        <v>12.36425359374782</v>
+        <v>9.8591231133109414</v>
       </c>
       <c r="D104" s="15">
-        <v>237.11316826482579</v>
+        <v>208.0409849395885</v>
       </c>
       <c r="E104" s="15">
-        <v>169.40586685430532</v>
+        <v>154.61980624573414</v>
       </c>
       <c r="F104" s="15">
-        <v>347.80069912913677</v>
+        <v>306.51968767776651</v>
       </c>
       <c r="G104" s="28" t="s">
         <v>78</v>
@@ -12778,20 +12794,20 @@
       <c r="A105" s="16">
         <v>999</v>
       </c>
-      <c r="B105" s="14">
-        <v>4781</v>
+      <c r="B105" s="33">
+        <v>3067</v>
       </c>
       <c r="C105" s="14">
-        <v>11.270553317509036</v>
+        <v>11.639288238464607</v>
       </c>
       <c r="D105" s="15">
-        <v>258.3651949113688</v>
+        <v>250.98346236444345</v>
       </c>
       <c r="E105" s="15">
-        <v>187.77345334991463</v>
+        <v>185.16121463749815</v>
       </c>
       <c r="F105" s="15">
-        <v>432.65663323765796</v>
+        <v>390.41258815305491</v>
       </c>
       <c r="G105" s="28" t="s">
         <v>78</v>
@@ -12804,20 +12820,20 @@
       <c r="A106" s="16">
         <v>999</v>
       </c>
-      <c r="B106" s="14">
-        <v>4862</v>
+      <c r="B106" s="33">
+        <v>3069.1444444444401</v>
       </c>
       <c r="C106" s="14">
-        <v>11.498063612989107</v>
+        <v>10.946873007768421</v>
       </c>
       <c r="D106" s="15">
-        <v>280.61574486805637</v>
+        <v>116.11329998712945</v>
       </c>
       <c r="E106" s="15">
-        <v>201.96052564302511</v>
+        <v>88.450135136231253</v>
       </c>
       <c r="F106" s="15">
-        <v>424.45892196391395</v>
+        <v>165.13001198464292</v>
       </c>
       <c r="G106" s="28" t="s">
         <v>78</v>
@@ -12828,25 +12844,25 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="16">
-        <v>999</v>
-      </c>
-      <c r="B107" s="14">
-        <v>4943.2</v>
+        <v>806</v>
+      </c>
+      <c r="B107" s="33">
+        <v>3071.33</v>
       </c>
       <c r="C107" s="14">
-        <v>11.70787233146231</v>
+        <v>13.399263753896596</v>
       </c>
       <c r="D107" s="15">
-        <v>250.16884506331965</v>
+        <v>323.20745987486885</v>
       </c>
       <c r="E107" s="15">
-        <v>180.24948920155816</v>
+        <v>228.69082481075236</v>
       </c>
       <c r="F107" s="15">
-        <v>391.36730908560025</v>
+        <v>555.03574847810353</v>
       </c>
       <c r="G107" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H107" s="11" t="s">
         <v>67</v>
@@ -12854,25 +12870,25 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="16">
-        <v>999</v>
-      </c>
-      <c r="B108" s="14">
-        <v>5002.5537109375</v>
+        <v>925</v>
+      </c>
+      <c r="B108" s="33">
+        <v>3082</v>
       </c>
       <c r="C108" s="14">
-        <v>12.494673280900814</v>
+        <v>12.924919726404299</v>
       </c>
       <c r="D108" s="15">
-        <v>543.89846284262342</v>
+        <v>181.76820983473146</v>
       </c>
       <c r="E108" s="15">
-        <v>357.54766607773433</v>
+        <v>136.15252986286748</v>
       </c>
       <c r="F108" s="15">
-        <v>845.24492062772765</v>
+        <v>253.12568957264358</v>
       </c>
       <c r="G108" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H108" s="11" t="s">
         <v>67</v>
@@ -12882,20 +12898,20 @@
       <c r="A109" s="16">
         <v>999</v>
       </c>
-      <c r="B109" s="14">
-        <v>5042</v>
+      <c r="B109" s="33">
+        <v>3087.1666666666601</v>
       </c>
       <c r="C109" s="14">
-        <v>11.38464463918698</v>
+        <v>9.4020211402672249</v>
       </c>
       <c r="D109" s="15">
-        <v>262.54429739552137</v>
+        <v>165.26142470184641</v>
       </c>
       <c r="E109" s="15">
-        <v>191.43177041662088</v>
+        <v>121.62944021977165</v>
       </c>
       <c r="F109" s="15">
-        <v>399.99314235797431</v>
+        <v>226.15992561529248</v>
       </c>
       <c r="G109" s="28" t="s">
         <v>78</v>
@@ -12908,20 +12924,20 @@
       <c r="A110" s="16">
         <v>999</v>
       </c>
-      <c r="B110" s="14">
-        <v>5191</v>
+      <c r="B110" s="33">
+        <v>3117.3</v>
       </c>
       <c r="C110" s="14">
-        <v>11.492800371645018</v>
+        <v>11.393256125936002</v>
       </c>
       <c r="D110" s="15">
-        <v>214.80619484188747</v>
+        <v>291.87123017021992</v>
       </c>
       <c r="E110" s="15">
-        <v>153.15612451383666</v>
+        <v>202.27600275198031</v>
       </c>
       <c r="F110" s="15">
-        <v>316.64328255399437</v>
+        <v>449.08057352480154</v>
       </c>
       <c r="G110" s="28" t="s">
         <v>78</v>
@@ -12932,25 +12948,25 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="16">
-        <v>999</v>
-      </c>
-      <c r="B111" s="14">
-        <v>6003.4813880920401</v>
+        <v>925</v>
+      </c>
+      <c r="B111" s="33">
+        <v>3131.3</v>
       </c>
       <c r="C111" s="14">
-        <v>13.011390027618862</v>
+        <v>12.1473390229994</v>
       </c>
       <c r="D111" s="15">
-        <v>709.90520224153931</v>
+        <v>234.65286431784091</v>
       </c>
       <c r="E111" s="15">
-        <v>440.47401119947995</v>
+        <v>171.6914943995331</v>
       </c>
       <c r="F111" s="15">
-        <v>1186.1489916346166</v>
+        <v>331.72549212772924</v>
       </c>
       <c r="G111" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H111" s="11" t="s">
         <v>67</v>
@@ -12958,25 +12974,25 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="16">
-        <v>999</v>
-      </c>
-      <c r="B112" s="14">
-        <v>7001.2841224670401</v>
+        <v>806</v>
+      </c>
+      <c r="B112" s="33">
+        <v>3171.43</v>
       </c>
       <c r="C112" s="14">
-        <v>13.712363668350381</v>
+        <v>12.60735984927117</v>
       </c>
       <c r="D112" s="15">
-        <v>260.52234888428683</v>
+        <v>221.40184528242057</v>
       </c>
       <c r="E112" s="15">
-        <v>194.85473923617329</v>
+        <v>158.10665715034216</v>
       </c>
       <c r="F112" s="15">
-        <v>412.71801080157718</v>
+        <v>332.07962772574774</v>
       </c>
       <c r="G112" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H112" s="11" t="s">
         <v>67</v>
@@ -12986,20 +13002,20 @@
       <c r="A113" s="16">
         <v>999</v>
       </c>
-      <c r="B113" s="14">
-        <v>8000.3566741943396</v>
+      <c r="B113" s="33">
+        <v>3172</v>
       </c>
       <c r="C113" s="14">
-        <v>11.045064619764844</v>
+        <v>11.838473486327494</v>
       </c>
       <c r="D113" s="15">
-        <v>183.55107180955022</v>
+        <v>266.4362124904419</v>
       </c>
       <c r="E113" s="15">
-        <v>138.71290645325169</v>
+        <v>187.89491226029196</v>
       </c>
       <c r="F113" s="15">
-        <v>273.31261115241148</v>
+        <v>440.40993407735641</v>
       </c>
       <c r="G113" s="28" t="s">
         <v>78</v>
@@ -13012,20 +13028,20 @@
       <c r="A114" s="16">
         <v>999</v>
       </c>
-      <c r="B114" s="14">
-        <v>9308.1359863281305</v>
+      <c r="B114" s="33">
+        <v>3229</v>
       </c>
       <c r="C114" s="14">
-        <v>12.834323547088132</v>
+        <v>11.59672998189909</v>
       </c>
       <c r="D114" s="15">
-        <v>306.13742919567227</v>
+        <v>375.24775674198662</v>
       </c>
       <c r="E114" s="15">
-        <v>229.25885609951328</v>
+        <v>251.03833328516757</v>
       </c>
       <c r="F114" s="15">
-        <v>488.99500071759235</v>
+        <v>592.88116509038537</v>
       </c>
       <c r="G114" s="28" t="s">
         <v>78</v>
@@ -13036,25 +13052,25 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="16">
-        <v>999</v>
-      </c>
-      <c r="B115" s="14">
-        <v>10330.111503601102</v>
+        <v>806</v>
+      </c>
+      <c r="B115" s="33">
+        <v>3245.42</v>
       </c>
       <c r="C115" s="14">
-        <v>11.560980455469494</v>
+        <v>13.180079804895227</v>
       </c>
       <c r="D115" s="15">
-        <v>371.19723122443349</v>
+        <v>261.8271300945695</v>
       </c>
       <c r="E115" s="15">
-        <v>257.25088513199626</v>
+        <v>188.3366271255272</v>
       </c>
       <c r="F115" s="15">
-        <v>566.71761505525035</v>
+        <v>407.05530754058532</v>
       </c>
       <c r="G115" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H115" s="11" t="s">
         <v>67</v>
@@ -13062,25 +13078,25 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="16">
-        <v>999</v>
-      </c>
-      <c r="B116" s="14">
-        <v>11200.476646423302</v>
+        <v>925</v>
+      </c>
+      <c r="B116" s="33">
+        <v>3321</v>
       </c>
       <c r="C116" s="14">
-        <v>11.697324981050251</v>
+        <v>12.8241690390782</v>
       </c>
       <c r="D116" s="15">
-        <v>459.75546978520498</v>
+        <v>199.32934312568349</v>
       </c>
       <c r="E116" s="15">
-        <v>301.17861569132032</v>
+        <v>147.51140483788737</v>
       </c>
       <c r="F116" s="15">
-        <v>768.87051768904541</v>
+        <v>308.29739266682583</v>
       </c>
       <c r="G116" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H116" s="11" t="s">
         <v>67</v>
@@ -13088,25 +13104,25 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="16">
-        <v>999</v>
-      </c>
-      <c r="B117" s="14">
-        <v>12463.480949401899</v>
+        <v>925</v>
+      </c>
+      <c r="B117" s="33">
+        <v>3364</v>
       </c>
       <c r="C117" s="14">
-        <v>12.574247264549809</v>
+        <v>12.4185269898254</v>
       </c>
       <c r="D117" s="15">
-        <v>386.91924494040188</v>
+        <v>245.59144015096757</v>
       </c>
       <c r="E117" s="15">
-        <v>260.41971218270351</v>
+        <v>181.14351331134719</v>
       </c>
       <c r="F117" s="15">
-        <v>620.26357561537577</v>
+        <v>368.09248434152636</v>
       </c>
       <c r="G117" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H117" s="11" t="s">
         <v>67</v>
@@ -13114,25 +13130,25 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="16">
-        <v>999</v>
-      </c>
-      <c r="B118" s="14">
-        <v>13100.6994247437</v>
+        <v>806</v>
+      </c>
+      <c r="B118" s="33">
+        <v>3454.79</v>
       </c>
       <c r="C118" s="14">
-        <v>12.13014089240616</v>
+        <v>14.033401792963216</v>
       </c>
       <c r="D118" s="15">
-        <v>766.64623141226957</v>
+        <v>392.43282043364451</v>
       </c>
       <c r="E118" s="15">
-        <v>503.22345826194174</v>
+        <v>263.97985794492593</v>
       </c>
       <c r="F118" s="15">
-        <v>1374.7577926366446</v>
+        <v>692.06519571856052</v>
       </c>
       <c r="G118" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H118" s="11" t="s">
         <v>67</v>
@@ -13140,25 +13156,25 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="16">
-        <v>999</v>
-      </c>
-      <c r="B119" s="14">
-        <v>14358.4442138672</v>
+        <v>925</v>
+      </c>
+      <c r="B119" s="33">
+        <v>3457</v>
       </c>
       <c r="C119" s="14">
-        <v>13.978334427661942</v>
+        <v>12.9419365637031</v>
       </c>
       <c r="D119" s="15">
-        <v>1137.492255596412</v>
+        <v>465.95874629934917</v>
       </c>
       <c r="E119" s="15">
-        <v>710.71450215164498</v>
+        <v>302.59623516859006</v>
       </c>
       <c r="F119" s="15">
-        <v>2068.2443441350661</v>
+        <v>875.99784433935667</v>
       </c>
       <c r="G119" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H119" s="11" t="s">
         <v>67</v>
@@ -13166,25 +13182,25 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="16">
-        <v>999</v>
-      </c>
-      <c r="B120" s="14">
-        <v>15756.1550140381</v>
+        <v>925</v>
+      </c>
+      <c r="B120" s="33">
+        <v>3510</v>
       </c>
       <c r="C120" s="14">
-        <v>15.063748611710004</v>
+        <v>14.6529049486532</v>
       </c>
       <c r="D120" s="15">
-        <v>321.49164043891875</v>
+        <v>268.07680715118391</v>
       </c>
       <c r="E120" s="15">
-        <v>222.6235433323711</v>
+        <v>194.2131894070765</v>
       </c>
       <c r="F120" s="15">
-        <v>491.42072446714729</v>
+        <v>440.53341648949203</v>
       </c>
       <c r="G120" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H120" s="11" t="s">
         <v>67</v>
@@ -13192,25 +13208,25 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="16">
-        <v>806</v>
-      </c>
-      <c r="B121" s="14">
-        <v>215.29000000000002</v>
+        <v>925</v>
+      </c>
+      <c r="B121" s="33">
+        <v>3522</v>
       </c>
       <c r="C121" s="14">
-        <v>12.24150771630458</v>
+        <v>13.177225823923999</v>
       </c>
       <c r="D121" s="15">
-        <v>189.99940749843043</v>
+        <v>273.09650501028017</v>
       </c>
       <c r="E121" s="15">
-        <v>133.8779999125253</v>
+        <v>198.1730063412038</v>
       </c>
       <c r="F121" s="15">
-        <v>285.86036878028824</v>
+        <v>409.84790822973349</v>
       </c>
       <c r="G121" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H121" s="11" t="s">
         <v>67</v>
@@ -13220,20 +13236,20 @@
       <c r="A122" s="16">
         <v>806</v>
       </c>
-      <c r="B122" s="14">
-        <v>448.77</v>
+      <c r="B122" s="33">
+        <v>3540.83</v>
       </c>
       <c r="C122" s="14">
-        <v>13.239487668162267</v>
+        <v>13.11445922437388</v>
       </c>
       <c r="D122" s="15">
-        <v>246.01615027408613</v>
+        <v>239.65870370837621</v>
       </c>
       <c r="E122" s="15">
-        <v>168.99257523986731</v>
+        <v>167.11176755174324</v>
       </c>
       <c r="F122" s="15">
-        <v>394.68474438861949</v>
+        <v>396.38861794791893</v>
       </c>
       <c r="G122" s="28" t="s">
         <v>79</v>
@@ -13244,25 +13260,25 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="16">
-        <v>806</v>
-      </c>
-      <c r="B123" s="14">
-        <v>645.05999999999995</v>
+        <v>999</v>
+      </c>
+      <c r="B123" s="33">
+        <v>3624.9000000000005</v>
       </c>
       <c r="C123" s="14">
-        <v>12.706641650434989</v>
+        <v>12.482140542786402</v>
       </c>
       <c r="D123" s="15">
-        <v>214.73601418317867</v>
+        <v>343.8325097757583</v>
       </c>
       <c r="E123" s="15">
-        <v>153.07826912822964</v>
+        <v>246.0859738137811</v>
       </c>
       <c r="F123" s="15">
-        <v>342.93642977892705</v>
+        <v>557.85861741924987</v>
       </c>
       <c r="G123" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H123" s="11" t="s">
         <v>67</v>
@@ -13270,25 +13286,25 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="16">
-        <v>806</v>
-      </c>
-      <c r="B124" s="14">
-        <v>720.15</v>
+        <v>925</v>
+      </c>
+      <c r="B124" s="33">
+        <v>3673</v>
       </c>
       <c r="C124" s="14">
-        <v>12.795612383792349</v>
+        <v>13.2377097800327</v>
       </c>
       <c r="D124" s="15">
-        <v>205.10546378153438</v>
+        <v>206.17518553216226</v>
       </c>
       <c r="E124" s="15">
-        <v>142.12629253735844</v>
+        <v>153.62427937053127</v>
       </c>
       <c r="F124" s="15">
-        <v>304.25239462364601</v>
+        <v>279.09623259017565</v>
       </c>
       <c r="G124" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H124" s="11" t="s">
         <v>67</v>
@@ -13298,20 +13314,20 @@
       <c r="A125" s="16">
         <v>806</v>
       </c>
-      <c r="B125" s="14">
-        <v>776.92000000000007</v>
+      <c r="B125" s="33">
+        <v>3746.55</v>
       </c>
       <c r="C125" s="14">
-        <v>12.294709346366362</v>
+        <v>13.97062289161271</v>
       </c>
       <c r="D125" s="15">
-        <v>168.79471728980653</v>
+        <v>390.84101152653648</v>
       </c>
       <c r="E125" s="15">
-        <v>117.18451873775311</v>
+        <v>258.98699532895773</v>
       </c>
       <c r="F125" s="15">
-        <v>249.17121625734822</v>
+        <v>638.92483784214301</v>
       </c>
       <c r="G125" s="28" t="s">
         <v>79</v>
@@ -13322,25 +13338,25 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="16">
-        <v>806</v>
-      </c>
-      <c r="B126" s="14">
-        <v>823.86</v>
+        <v>999</v>
+      </c>
+      <c r="B126" s="33">
+        <v>3846.2</v>
       </c>
       <c r="C126" s="14">
-        <v>13.475202874602948</v>
+        <v>12.249941311452073</v>
       </c>
       <c r="D126" s="15">
-        <v>225.06285927199821</v>
+        <v>230.32976130508672</v>
       </c>
       <c r="E126" s="15">
-        <v>160.53587970748623</v>
+        <v>165.48025626341496</v>
       </c>
       <c r="F126" s="15">
-        <v>349.01473531545173</v>
+        <v>353.58508868000007</v>
       </c>
       <c r="G126" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H126" s="11" t="s">
         <v>67</v>
@@ -13348,25 +13364,25 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="16">
-        <v>806</v>
-      </c>
-      <c r="B127" s="14">
-        <v>855.15</v>
+        <v>925</v>
+      </c>
+      <c r="B127" s="33">
+        <v>3848.5</v>
       </c>
       <c r="C127" s="14">
-        <v>12.50569146253925</v>
+        <v>12.476425981662301</v>
       </c>
       <c r="D127" s="15">
-        <v>189.98558282961702</v>
+        <v>228.68110196137917</v>
       </c>
       <c r="E127" s="15">
-        <v>126.38210683494361</v>
+        <v>168.15200564927486</v>
       </c>
       <c r="F127" s="15">
-        <v>291.97567922815153</v>
+        <v>333.49775660239339</v>
       </c>
       <c r="G127" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H127" s="11" t="s">
         <v>67</v>
@@ -13374,25 +13390,25 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="16">
-        <v>806</v>
-      </c>
-      <c r="B128" s="14">
-        <v>926.67</v>
+        <v>999</v>
+      </c>
+      <c r="B128" s="33">
+        <v>3933.5</v>
       </c>
       <c r="C128" s="14">
-        <v>13.160763459211065</v>
+        <v>11.796732434388835</v>
       </c>
       <c r="D128" s="15">
-        <v>238.89722703250081</v>
+        <v>259.9284938928925</v>
       </c>
       <c r="E128" s="15">
-        <v>165.29261554846943</v>
+        <v>187.30121131614888</v>
       </c>
       <c r="F128" s="15">
-        <v>382.19080119789595</v>
+        <v>422.58746739799051</v>
       </c>
       <c r="G128" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H128" s="11" t="s">
         <v>67</v>
@@ -13402,20 +13418,20 @@
       <c r="A129" s="16">
         <v>806</v>
       </c>
-      <c r="B129" s="14">
-        <v>998.19</v>
+      <c r="B129" s="33">
+        <v>3947.77</v>
       </c>
       <c r="C129" s="14">
-        <v>13.588668328268307</v>
+        <v>14.334108294318796</v>
       </c>
       <c r="D129" s="15">
-        <v>286.79291731611482</v>
+        <v>460.3134038858725</v>
       </c>
       <c r="E129" s="15">
-        <v>195.76694817712252</v>
+        <v>299.61827487528774</v>
       </c>
       <c r="F129" s="15">
-        <v>440.86481652558007</v>
+        <v>781.77429710488957</v>
       </c>
       <c r="G129" s="28" t="s">
         <v>79</v>
@@ -13426,25 +13442,25 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="16">
-        <v>806</v>
-      </c>
-      <c r="B130" s="14">
-        <v>1051.8300000000002</v>
+        <v>925</v>
+      </c>
+      <c r="B130" s="33">
+        <v>3985.5</v>
       </c>
       <c r="C130" s="14">
-        <v>12.885531881043331</v>
+        <v>12.754357678142799</v>
       </c>
       <c r="D130" s="15">
-        <v>214.983751779578</v>
+        <v>274.56167489048988</v>
       </c>
       <c r="E130" s="15">
-        <v>150.09066749850481</v>
+        <v>199.48071044532861</v>
       </c>
       <c r="F130" s="15">
-        <v>341.25416420420981</v>
+        <v>434.32146821565914</v>
       </c>
       <c r="G130" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H130" s="11" t="s">
         <v>67</v>
@@ -13452,25 +13468,25 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="16">
-        <v>806</v>
-      </c>
-      <c r="B131" s="14">
-        <v>1123.3500000000001</v>
+        <v>999</v>
+      </c>
+      <c r="B131" s="33">
+        <v>4008.8701171874995</v>
       </c>
       <c r="C131" s="14">
-        <v>12.892537867572555</v>
+        <v>12.637002253308662</v>
       </c>
       <c r="D131" s="15">
-        <v>189.26604008880341</v>
+        <v>417.04809459177704</v>
       </c>
       <c r="E131" s="15">
-        <v>132.2310133999311</v>
+        <v>275.18257235724531</v>
       </c>
       <c r="F131" s="15">
-        <v>278.66652143936449</v>
+        <v>702.81950668687477</v>
       </c>
       <c r="G131" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H131" s="11" t="s">
         <v>67</v>
@@ -13478,25 +13494,25 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="16">
-        <v>806</v>
-      </c>
-      <c r="B132" s="14">
-        <v>1179.22</v>
+        <v>999</v>
+      </c>
+      <c r="B132" s="33">
+        <v>4027.9999999999995</v>
       </c>
       <c r="C132" s="14">
-        <v>13.747989175992796</v>
+        <v>11.470416553059914</v>
       </c>
       <c r="D132" s="15">
-        <v>270.67131113421931</v>
+        <v>359.83526175252331</v>
       </c>
       <c r="E132" s="15">
-        <v>183.06573750945356</v>
+        <v>256.40194460716407</v>
       </c>
       <c r="F132" s="15">
-        <v>436.49588435473072</v>
+        <v>584.75962321523491</v>
       </c>
       <c r="G132" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H132" s="11" t="s">
         <v>67</v>
@@ -13506,20 +13522,20 @@
       <c r="A133" s="16">
         <v>806</v>
       </c>
-      <c r="B133" s="14">
-        <v>1190.3999999999999</v>
+      <c r="B133" s="33">
+        <v>4105.3899999999994</v>
       </c>
       <c r="C133" s="14">
-        <v>13.123491404469501</v>
+        <v>13.858732121934969</v>
       </c>
       <c r="D133" s="15">
-        <v>242.96467495194275</v>
+        <v>323.90429836404667</v>
       </c>
       <c r="E133" s="15">
-        <v>169.01899056438219</v>
+        <v>222.76240780232246</v>
       </c>
       <c r="F133" s="15">
-        <v>373.29903201198664</v>
+        <v>547.79407934803908</v>
       </c>
       <c r="G133" s="28" t="s">
         <v>79</v>
@@ -13530,25 +13546,25 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="16">
-        <v>806</v>
-      </c>
-      <c r="B134" s="14">
-        <v>1219.4499999999998</v>
+        <v>925</v>
+      </c>
+      <c r="B134" s="33">
+        <v>4106.2</v>
       </c>
       <c r="C134" s="14">
-        <v>13.414545807434298</v>
+        <v>13.241517537281799</v>
       </c>
       <c r="D134" s="15">
-        <v>316.41480188568272</v>
+        <v>388.94097230676897</v>
       </c>
       <c r="E134" s="15">
-        <v>208.31774432408119</v>
+        <v>268.32540565959454</v>
       </c>
       <c r="F134" s="15">
-        <v>481.14502439941026</v>
+        <v>591.57024843898148</v>
       </c>
       <c r="G134" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H134" s="11" t="s">
         <v>67</v>
@@ -13556,25 +13572,25 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="16">
-        <v>806</v>
-      </c>
-      <c r="B135" s="14">
-        <v>1234.2</v>
+        <v>999</v>
+      </c>
+      <c r="B135" s="33">
+        <v>4113.5</v>
       </c>
       <c r="C135" s="14">
-        <v>12.964459975620432</v>
+        <v>12.326335342944583</v>
       </c>
       <c r="D135" s="15">
-        <v>281.68818047085563</v>
+        <v>395.04407794241939</v>
       </c>
       <c r="E135" s="15">
-        <v>189.05648839598342</v>
+        <v>271.17302235361086</v>
       </c>
       <c r="F135" s="15">
-        <v>460.21066762984259</v>
+        <v>598.17377187960096</v>
       </c>
       <c r="G135" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H135" s="11" t="s">
         <v>67</v>
@@ -13584,20 +13600,20 @@
       <c r="A136" s="16">
         <v>806</v>
       </c>
-      <c r="B136" s="14">
-        <v>1250.74</v>
+      <c r="B136" s="33">
+        <v>4255.4299999999994</v>
       </c>
       <c r="C136" s="14">
-        <v>13.297062127790335</v>
+        <v>13.371121738101326</v>
       </c>
       <c r="D136" s="15">
-        <v>266.61449794156522</v>
+        <v>262.34167738313732</v>
       </c>
       <c r="E136" s="15">
-        <v>181.664016573797</v>
+        <v>175.87624751006496</v>
       </c>
       <c r="F136" s="15">
-        <v>450.00466164231221</v>
+        <v>412.46007459164366</v>
       </c>
       <c r="G136" s="28" t="s">
         <v>79</v>
@@ -13608,25 +13624,25 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="16">
-        <v>806</v>
-      </c>
-      <c r="B137" s="14">
-        <v>1268.6200000000001</v>
+        <v>999</v>
+      </c>
+      <c r="B137" s="33">
+        <v>4342</v>
       </c>
       <c r="C137" s="14">
-        <v>13.476583765862491</v>
+        <v>12.568691246470642</v>
       </c>
       <c r="D137" s="15">
-        <v>262.00970278307233</v>
+        <v>341.07080740291497</v>
       </c>
       <c r="E137" s="15">
-        <v>181.11460761907858</v>
+        <v>231.78655033725323</v>
       </c>
       <c r="F137" s="15">
-        <v>426.01962587761409</v>
+        <v>533.25533560720544</v>
       </c>
       <c r="G137" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H137" s="11" t="s">
         <v>67</v>
@@ -13634,25 +13650,25 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="16">
-        <v>806</v>
-      </c>
-      <c r="B138" s="14">
-        <v>1317.79</v>
+        <v>999</v>
+      </c>
+      <c r="B138" s="33">
+        <v>4433.6000000000004</v>
       </c>
       <c r="C138" s="14">
-        <v>12.9228867024647</v>
+        <v>12.205245906980577</v>
       </c>
       <c r="D138" s="15">
-        <v>254.25497131209852</v>
+        <v>361.93417448600303</v>
       </c>
       <c r="E138" s="15">
-        <v>174.60425617567992</v>
+        <v>253.32012498180387</v>
       </c>
       <c r="F138" s="15">
-        <v>406.38555886395824</v>
+        <v>564.01186395819832</v>
       </c>
       <c r="G138" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H138" s="11" t="s">
         <v>67</v>
@@ -13662,20 +13678,20 @@
       <c r="A139" s="16">
         <v>806</v>
       </c>
-      <c r="B139" s="14">
-        <v>1655.28</v>
+      <c r="B139" s="33">
+        <v>4437</v>
       </c>
       <c r="C139" s="14">
-        <v>13.330021658832759</v>
+        <v>13.978853791460361</v>
       </c>
       <c r="D139" s="15">
-        <v>243.17022344144277</v>
+        <v>397.94795999342955</v>
       </c>
       <c r="E139" s="15">
-        <v>164.63900945633898</v>
+        <v>264.1906027345575</v>
       </c>
       <c r="F139" s="15">
-        <v>395.01858103376105</v>
+        <v>660.33431284283517</v>
       </c>
       <c r="G139" s="28" t="s">
         <v>79</v>
@@ -13686,25 +13702,25 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="16">
-        <v>806</v>
-      </c>
-      <c r="B140" s="14">
-        <v>1749.25</v>
+        <v>925</v>
+      </c>
+      <c r="B140" s="33">
+        <v>4447.5</v>
       </c>
       <c r="C140" s="14">
-        <v>12.913799461284016</v>
+        <v>14.162512046216101</v>
       </c>
       <c r="D140" s="15">
-        <v>237.00333295592307</v>
+        <v>320.76698203520544</v>
       </c>
       <c r="E140" s="15">
-        <v>164.92039508626701</v>
+        <v>223.87320244498881</v>
       </c>
       <c r="F140" s="15">
-        <v>367.59247667803584</v>
+        <v>501.89580048153164</v>
       </c>
       <c r="G140" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H140" s="11" t="s">
         <v>67</v>
@@ -13712,25 +13728,25 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="16">
-        <v>806</v>
-      </c>
-      <c r="B141" s="14">
-        <v>1800.35</v>
+        <v>999</v>
+      </c>
+      <c r="B141" s="33">
+        <v>4577.3999999999996</v>
       </c>
       <c r="C141" s="14">
-        <v>13.199740625939796</v>
+        <v>12.36425359374782</v>
       </c>
       <c r="D141" s="15">
-        <v>238.43919803883961</v>
+        <v>237.11316826482579</v>
       </c>
       <c r="E141" s="15">
-        <v>163.42348795741606</v>
+        <v>169.40586685430532</v>
       </c>
       <c r="F141" s="15">
-        <v>363.81667366427013</v>
+        <v>347.80069912913677</v>
       </c>
       <c r="G141" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H141" s="11" t="s">
         <v>67</v>
@@ -13740,20 +13756,20 @@
       <c r="A142" s="16">
         <v>806</v>
       </c>
-      <c r="B142" s="14">
-        <v>1854.1399999999999</v>
+      <c r="B142" s="33">
+        <v>4592.58</v>
       </c>
       <c r="C142" s="14">
-        <v>13.463012731272974</v>
+        <v>14.017813320802501</v>
       </c>
       <c r="D142" s="15">
-        <v>281.52208494716166</v>
+        <v>360.61663930972065</v>
       </c>
       <c r="E142" s="15">
-        <v>195.8220282761184</v>
+        <v>244.71506177582856</v>
       </c>
       <c r="F142" s="15">
-        <v>476.3878160099863</v>
+        <v>631.1144609169728</v>
       </c>
       <c r="G142" s="28" t="s">
         <v>79</v>
@@ -13766,20 +13782,20 @@
       <c r="A143" s="16">
         <v>806</v>
       </c>
-      <c r="B143" s="14">
-        <v>1907.9299999999998</v>
+      <c r="B143" s="33">
+        <v>4752.8599999999997</v>
       </c>
       <c r="C143" s="14">
-        <v>13.285914588867399</v>
+        <v>14.314700369507889</v>
       </c>
       <c r="D143" s="15">
-        <v>292.60600091806691</v>
+        <v>497.57785620839741</v>
       </c>
       <c r="E143" s="15">
-        <v>200.87492827193617</v>
+        <v>329.51684561697056</v>
       </c>
       <c r="F143" s="15">
-        <v>480.61740125540388</v>
+        <v>889.11007112812945</v>
       </c>
       <c r="G143" s="28" t="s">
         <v>79</v>
@@ -13790,25 +13806,25 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="16">
-        <v>806</v>
-      </c>
-      <c r="B144" s="14">
-        <v>1992.69</v>
+        <v>925</v>
+      </c>
+      <c r="B144" s="33">
+        <v>4776.2</v>
       </c>
       <c r="C144" s="14">
-        <v>13.653645477052132</v>
+        <v>13.6560709774636</v>
       </c>
       <c r="D144" s="15">
-        <v>299.69904402266985</v>
+        <v>401.20081502907669</v>
       </c>
       <c r="E144" s="15">
-        <v>205.55478373568607</v>
+        <v>270.30551465865938</v>
       </c>
       <c r="F144" s="15">
-        <v>497.71790261761208</v>
+        <v>675.8210706597805</v>
       </c>
       <c r="G144" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H144" s="11" t="s">
         <v>67</v>
@@ -13816,25 +13832,25 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="16">
-        <v>806</v>
-      </c>
-      <c r="B145" s="14">
-        <v>2226.9100000000003</v>
+        <v>999</v>
+      </c>
+      <c r="B145" s="33">
+        <v>4781</v>
       </c>
       <c r="C145" s="14">
-        <v>13.74408022109583</v>
+        <v>11.270553317509036</v>
       </c>
       <c r="D145" s="15">
-        <v>303.52408074839911</v>
+        <v>258.3651949113688</v>
       </c>
       <c r="E145" s="15">
-        <v>208.92131860823906</v>
+        <v>187.77345334991463</v>
       </c>
       <c r="F145" s="15">
-        <v>480.35474104821537</v>
+        <v>432.65663323765796</v>
       </c>
       <c r="G145" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H145" s="11" t="s">
         <v>67</v>
@@ -13842,25 +13858,25 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="16">
-        <v>806</v>
-      </c>
-      <c r="B146" s="14">
-        <v>2279.81</v>
+        <v>999</v>
+      </c>
+      <c r="B146" s="33">
+        <v>4862</v>
       </c>
       <c r="C146" s="14">
-        <v>13.150656772787528</v>
+        <v>11.498063612989107</v>
       </c>
       <c r="D146" s="15">
-        <v>245.8079674760348</v>
+        <v>280.61574486805637</v>
       </c>
       <c r="E146" s="15">
-        <v>163.84043612179872</v>
+        <v>201.96052564302511</v>
       </c>
       <c r="F146" s="15">
-        <v>397.5523779512186</v>
+        <v>424.45892196391395</v>
       </c>
       <c r="G146" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H146" s="11" t="s">
         <v>67</v>
@@ -13868,25 +13884,25 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="16">
-        <v>806</v>
-      </c>
-      <c r="B147" s="14">
-        <v>2357.58</v>
+        <v>999</v>
+      </c>
+      <c r="B147" s="33">
+        <v>4943.2</v>
       </c>
       <c r="C147" s="14">
-        <v>13.678368264794537</v>
+        <v>11.70787233146231</v>
       </c>
       <c r="D147" s="15">
-        <v>337.01778478130507</v>
+        <v>250.16884506331965</v>
       </c>
       <c r="E147" s="15">
-        <v>229.72610517708216</v>
+        <v>180.24948920155816</v>
       </c>
       <c r="F147" s="15">
-        <v>532.18277583380961</v>
+        <v>391.36730908560025</v>
       </c>
       <c r="G147" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H147" s="11" t="s">
         <v>67</v>
@@ -13894,25 +13910,25 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="16">
-        <v>806</v>
-      </c>
-      <c r="B148" s="14">
-        <v>2404.96</v>
+        <v>999</v>
+      </c>
+      <c r="B148" s="33">
+        <v>5002.5537109375</v>
       </c>
       <c r="C148" s="14">
-        <v>14.989275544056204</v>
+        <v>12.494673280900814</v>
       </c>
       <c r="D148" s="15">
-        <v>525.99227539331901</v>
+        <v>543.89846284262342</v>
       </c>
       <c r="E148" s="15">
-        <v>343.63780334376776</v>
+        <v>357.54766607773433</v>
       </c>
       <c r="F148" s="15">
-        <v>934.28055892766793</v>
+        <v>845.24492062772765</v>
       </c>
       <c r="G148" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H148" s="11" t="s">
         <v>67</v>
@@ -13920,25 +13936,25 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="16">
-        <v>806</v>
-      </c>
-      <c r="B149" s="14">
-        <v>2457.98</v>
+        <v>999</v>
+      </c>
+      <c r="B149" s="33">
+        <v>5042</v>
       </c>
       <c r="C149" s="14">
-        <v>14.518354321040201</v>
+        <v>11.38464463918698</v>
       </c>
       <c r="D149" s="15">
-        <v>387.34284338525771</v>
+        <v>262.54429739552137</v>
       </c>
       <c r="E149" s="15">
-        <v>252.43332660385875</v>
+        <v>191.43177041662088</v>
       </c>
       <c r="F149" s="15">
-        <v>647.69896841527782</v>
+        <v>399.99314235797431</v>
       </c>
       <c r="G149" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H149" s="11" t="s">
         <v>67</v>
@@ -13946,25 +13962,25 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="16">
-        <v>806</v>
-      </c>
-      <c r="B150" s="14">
-        <v>2501.6</v>
+        <v>999</v>
+      </c>
+      <c r="B150" s="33">
+        <v>5191</v>
       </c>
       <c r="C150" s="14">
-        <v>14.447167635593612</v>
+        <v>11.492800371645018</v>
       </c>
       <c r="D150" s="15">
-        <v>445.73486166148018</v>
+        <v>214.80619484188747</v>
       </c>
       <c r="E150" s="15">
-        <v>299.15024693545968</v>
+        <v>153.15612451383666</v>
       </c>
       <c r="F150" s="15">
-        <v>770.28311937393016</v>
+        <v>316.64328255399437</v>
       </c>
       <c r="G150" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H150" s="11" t="s">
         <v>67</v>
@@ -13974,20 +13990,20 @@
       <c r="A151" s="16">
         <v>806</v>
       </c>
-      <c r="B151" s="14">
-        <v>2532.1999999999998</v>
+      <c r="B151" s="33">
+        <v>5293.7052631578999</v>
       </c>
       <c r="C151" s="14">
-        <v>14.277387095353232</v>
+        <v>14.4395133043607</v>
       </c>
       <c r="D151" s="15">
-        <v>430.09699464157575</v>
+        <v>397.07395620815322</v>
       </c>
       <c r="E151" s="15">
-        <v>285.90778689006891</v>
+        <v>260.24097473036369</v>
       </c>
       <c r="F151" s="15">
-        <v>730.71101747768409</v>
+        <v>685.65460193329216</v>
       </c>
       <c r="G151" s="28" t="s">
         <v>79</v>
@@ -14000,20 +14016,20 @@
       <c r="A152" s="16">
         <v>806</v>
       </c>
-      <c r="B152" s="14">
-        <v>2523.58</v>
+      <c r="B152" s="33">
+        <v>5511.5210526315805</v>
       </c>
       <c r="C152" s="14">
-        <v>13.873956772801797</v>
+        <v>11.879439507024401</v>
       </c>
       <c r="D152" s="15">
-        <v>308.46666962130826</v>
+        <v>159.69853644109835</v>
       </c>
       <c r="E152" s="15">
-        <v>214.85599352680049</v>
+        <v>114.21344940392835</v>
       </c>
       <c r="F152" s="15">
-        <v>533.43088263848813</v>
+        <v>236.48994869794251</v>
       </c>
       <c r="G152" s="28" t="s">
         <v>79</v>
@@ -14026,20 +14042,20 @@
       <c r="A153" s="16">
         <v>806</v>
       </c>
-      <c r="B153" s="14">
-        <v>2608.4700000000003</v>
+      <c r="B153" s="33">
+        <v>5576.7842105263198</v>
       </c>
       <c r="C153" s="14">
-        <v>13.748365489054439</v>
+        <v>14.117640282160201</v>
       </c>
       <c r="D153" s="15">
-        <v>293.94133114561618</v>
+        <v>371.47472806090644</v>
       </c>
       <c r="E153" s="15">
-        <v>198.71676085238036</v>
+        <v>246.10355286357205</v>
       </c>
       <c r="F153" s="15">
-        <v>454.87224885800811</v>
+        <v>586.2680091674722</v>
       </c>
       <c r="G153" s="28" t="s">
         <v>79</v>
@@ -14052,20 +14068,20 @@
       <c r="A154" s="16">
         <v>806</v>
       </c>
-      <c r="B154" s="14">
-        <v>2704.96</v>
+      <c r="B154" s="33">
+        <v>5693.4526315789499</v>
       </c>
       <c r="C154" s="14">
-        <v>13.645498085686475</v>
+        <v>12.737523860136401</v>
       </c>
       <c r="D154" s="15">
-        <v>296.47093588894893</v>
+        <v>218.64141533103719</v>
       </c>
       <c r="E154" s="15">
-        <v>208.35470522902307</v>
+        <v>147.93066820999036</v>
       </c>
       <c r="F154" s="15">
-        <v>517.76864936480945</v>
+        <v>343.54769380208967</v>
       </c>
       <c r="G154" s="28" t="s">
         <v>79</v>
@@ -14078,20 +14094,20 @@
       <c r="A155" s="16">
         <v>806</v>
       </c>
-      <c r="B155" s="14">
-        <v>2804.98</v>
+      <c r="B155" s="33">
+        <v>5870.2947368421101</v>
       </c>
       <c r="C155" s="14">
-        <v>14.445646694736817</v>
+        <v>13.8475854798064</v>
       </c>
       <c r="D155" s="15">
-        <v>445.68123530647938</v>
+        <v>334.75595542299618</v>
       </c>
       <c r="E155" s="15">
-        <v>281.42540570448051</v>
+        <v>225.71344489438854</v>
       </c>
       <c r="F155" s="15">
-        <v>753.20775538164571</v>
+        <v>572.49862071965538</v>
       </c>
       <c r="G155" s="28" t="s">
         <v>79</v>
@@ -14102,25 +14118,25 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="16">
-        <v>806</v>
-      </c>
-      <c r="B156" s="14">
-        <v>2898.39</v>
+        <v>999</v>
+      </c>
+      <c r="B156" s="33">
+        <v>6003.4813880920401</v>
       </c>
       <c r="C156" s="14">
-        <v>14.324818658543633</v>
+        <v>13.011390027618862</v>
       </c>
       <c r="D156" s="15">
-        <v>402.79069462145367</v>
+        <v>709.90520224153931</v>
       </c>
       <c r="E156" s="15">
-        <v>277.22658925287863</v>
+        <v>440.47401119947995</v>
       </c>
       <c r="F156" s="15">
-        <v>676.24337457414276</v>
+        <v>1186.1489916346166</v>
       </c>
       <c r="G156" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H156" s="11" t="s">
         <v>67</v>
@@ -14130,20 +14146,20 @@
       <c r="A157" s="16">
         <v>806</v>
       </c>
-      <c r="B157" s="14">
-        <v>2997.91</v>
+      <c r="B157" s="33">
+        <v>6059.7684210526304</v>
       </c>
       <c r="C157" s="14">
-        <v>14.673988674555</v>
+        <v>12.9092236897524</v>
       </c>
       <c r="D157" s="15">
-        <v>456.00690729099085</v>
+        <v>234.38656985993177</v>
       </c>
       <c r="E157" s="15">
-        <v>301.3720132185037</v>
+        <v>171.52347522271231</v>
       </c>
       <c r="F157" s="15">
-        <v>759.04278982318215</v>
+        <v>372.10747519915338</v>
       </c>
       <c r="G157" s="28" t="s">
         <v>79</v>
@@ -14156,20 +14172,20 @@
       <c r="A158" s="16">
         <v>806</v>
       </c>
-      <c r="B158" s="14">
-        <v>3071.33</v>
+      <c r="B158" s="33">
+        <v>6223.9789473684195</v>
       </c>
       <c r="C158" s="14">
-        <v>13.399263753896596</v>
+        <v>14.697343714344401</v>
       </c>
       <c r="D158" s="15">
-        <v>323.20745987486885</v>
+        <v>466.63925779024726</v>
       </c>
       <c r="E158" s="15">
-        <v>228.69082481075236</v>
+        <v>305.80016364914735</v>
       </c>
       <c r="F158" s="15">
-        <v>555.03574847810353</v>
+        <v>733.12413943061097</v>
       </c>
       <c r="G158" s="28" t="s">
         <v>79</v>
@@ -14182,20 +14198,20 @@
       <c r="A159" s="16">
         <v>806</v>
       </c>
-      <c r="B159" s="14">
-        <v>3171.43</v>
+      <c r="B159" s="33">
+        <v>6413.4526315789508</v>
       </c>
       <c r="C159" s="14">
-        <v>12.60735984927117</v>
+        <v>14.4126980118087</v>
       </c>
       <c r="D159" s="15">
-        <v>221.40184528242057</v>
+        <v>416.29294463213324</v>
       </c>
       <c r="E159" s="15">
-        <v>158.10665715034216</v>
+        <v>275.68424458114936</v>
       </c>
       <c r="F159" s="15">
-        <v>332.07962772574774</v>
+        <v>711.06722944008811</v>
       </c>
       <c r="G159" s="28" t="s">
         <v>79</v>
@@ -14208,20 +14224,20 @@
       <c r="A160" s="16">
         <v>806</v>
       </c>
-      <c r="B160" s="14">
-        <v>3245.42</v>
+      <c r="B160" s="33">
+        <v>6577.6631578947399</v>
       </c>
       <c r="C160" s="14">
-        <v>13.180079804895227</v>
+        <v>11.055275922782901</v>
       </c>
       <c r="D160" s="15">
-        <v>261.8271300945695</v>
+        <v>118.70919568597716</v>
       </c>
       <c r="E160" s="15">
-        <v>188.3366271255272</v>
+        <v>89.75877402839042</v>
       </c>
       <c r="F160" s="15">
-        <v>407.05530754058532</v>
+        <v>176.75960731100602</v>
       </c>
       <c r="G160" s="28" t="s">
         <v>79</v>
@@ -14234,20 +14250,20 @@
       <c r="A161" s="16">
         <v>806</v>
       </c>
-      <c r="B161" s="14">
-        <v>3454.79</v>
+      <c r="B161" s="33">
+        <v>6754.5052631579001</v>
       </c>
       <c r="C161" s="14">
-        <v>14.033401792963216</v>
+        <v>14.5111593466365</v>
       </c>
       <c r="D161" s="15">
-        <v>392.43282043364451</v>
+        <v>429.75152780371047</v>
       </c>
       <c r="E161" s="15">
-        <v>263.97985794492593</v>
+        <v>286.432460733146</v>
       </c>
       <c r="F161" s="15">
-        <v>692.06519571856052</v>
+        <v>773.07384304473283</v>
       </c>
       <c r="G161" s="28" t="s">
         <v>79</v>
@@ -14260,20 +14276,20 @@
       <c r="A162" s="16">
         <v>806</v>
       </c>
-      <c r="B162" s="14">
-        <v>3540.83</v>
+      <c r="B162" s="33">
+        <v>6926.3663157894698</v>
       </c>
       <c r="C162" s="14">
-        <v>13.11445922437388</v>
+        <v>14.2516393803515</v>
       </c>
       <c r="D162" s="15">
-        <v>239.65870370837621</v>
+        <v>387.03634784959752</v>
       </c>
       <c r="E162" s="15">
-        <v>167.11176755174324</v>
+        <v>251.45599036717493</v>
       </c>
       <c r="F162" s="15">
-        <v>396.38861794791893</v>
+        <v>674.2987086684368</v>
       </c>
       <c r="G162" s="28" t="s">
         <v>79</v>
@@ -14284,25 +14300,25 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="16">
-        <v>806</v>
-      </c>
-      <c r="B163" s="14">
-        <v>3746.55</v>
+        <v>999</v>
+      </c>
+      <c r="B163" s="33">
+        <v>7001.2841224670401</v>
       </c>
       <c r="C163" s="14">
-        <v>13.97062289161271</v>
+        <v>13.712363668350381</v>
       </c>
       <c r="D163" s="15">
-        <v>390.84101152653648</v>
+        <v>260.52234888428683</v>
       </c>
       <c r="E163" s="15">
-        <v>258.98699532895773</v>
+        <v>194.85473923617329</v>
       </c>
       <c r="F163" s="15">
-        <v>638.92483784214301</v>
+        <v>412.71801080157718</v>
       </c>
       <c r="G163" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H163" s="11" t="s">
         <v>67</v>
@@ -14312,20 +14328,20 @@
       <c r="A164" s="16">
         <v>806</v>
       </c>
-      <c r="B164" s="14">
-        <v>3947.77</v>
+      <c r="B164" s="33">
+        <v>7061.9452631578897</v>
       </c>
       <c r="C164" s="14">
-        <v>14.334108294318796</v>
+        <v>13.456974482964499</v>
       </c>
       <c r="D164" s="15">
-        <v>460.3134038858725</v>
+        <v>290.23061575458166</v>
       </c>
       <c r="E164" s="15">
-        <v>299.61827487528774</v>
+        <v>193.53486188708013</v>
       </c>
       <c r="F164" s="15">
-        <v>781.77429710488957</v>
+        <v>475.56900204587873</v>
       </c>
       <c r="G164" s="28" t="s">
         <v>79</v>
@@ -14336,25 +14352,25 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="16">
-        <v>806</v>
-      </c>
-      <c r="B165" s="14">
-        <v>4105.3899999999994</v>
+        <v>925</v>
+      </c>
+      <c r="B165" s="33">
+        <v>7150</v>
       </c>
       <c r="C165" s="14">
-        <v>13.858732121934969</v>
+        <v>14.2451137513935</v>
       </c>
       <c r="D165" s="15">
-        <v>323.90429836404667</v>
+        <v>266.57149012002776</v>
       </c>
       <c r="E165" s="15">
-        <v>222.76240780232246</v>
+        <v>190.19914115802717</v>
       </c>
       <c r="F165" s="15">
-        <v>547.79407934803908</v>
+        <v>422.54847678545622</v>
       </c>
       <c r="G165" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H165" s="11" t="s">
         <v>67</v>
@@ -14364,20 +14380,20 @@
       <c r="A166" s="16">
         <v>806</v>
       </c>
-      <c r="B166" s="14">
-        <v>4255.4299999999994</v>
+      <c r="B166" s="33">
+        <v>7207.20842105263</v>
       </c>
       <c r="C166" s="14">
-        <v>13.371121738101326</v>
+        <v>12.547721634455501</v>
       </c>
       <c r="D166" s="15">
-        <v>262.34167738313732</v>
+        <v>212.40821000292738</v>
       </c>
       <c r="E166" s="15">
-        <v>175.87624751006496</v>
+        <v>155.20923442177144</v>
       </c>
       <c r="F166" s="15">
-        <v>412.46007459164366</v>
+        <v>322.48904365072815</v>
       </c>
       <c r="G166" s="28" t="s">
         <v>79</v>
@@ -14390,20 +14406,20 @@
       <c r="A167" s="16">
         <v>806</v>
       </c>
-      <c r="B167" s="14">
-        <v>4437</v>
+      <c r="B167" s="33">
+        <v>7333.1031578947404</v>
       </c>
       <c r="C167" s="14">
-        <v>13.978853791460361</v>
+        <v>12.775928154195899</v>
       </c>
       <c r="D167" s="15">
-        <v>397.94795999342955</v>
+        <v>233.31678544450961</v>
       </c>
       <c r="E167" s="15">
-        <v>264.1906027345575</v>
+        <v>169.23534499142639</v>
       </c>
       <c r="F167" s="15">
-        <v>660.33431284283517</v>
+        <v>364.81276098916811</v>
       </c>
       <c r="G167" s="28" t="s">
         <v>79</v>
@@ -14416,20 +14432,20 @@
       <c r="A168" s="16">
         <v>806</v>
       </c>
-      <c r="B168" s="14">
-        <v>4592.58</v>
+      <c r="B168" s="33">
+        <v>7429.9452631578997</v>
       </c>
       <c r="C168" s="14">
-        <v>14.017813320802501</v>
+        <v>12.2585270204777</v>
       </c>
       <c r="D168" s="15">
-        <v>360.61663930972065</v>
+        <v>189.67207600685683</v>
       </c>
       <c r="E168" s="15">
-        <v>244.71506177582856</v>
+        <v>140.54288749043076</v>
       </c>
       <c r="F168" s="15">
-        <v>631.1144609169728</v>
+        <v>293.98996807128259</v>
       </c>
       <c r="G168" s="28" t="s">
         <v>79</v>
@@ -14442,20 +14458,20 @@
       <c r="A169" s="16">
         <v>806</v>
       </c>
-      <c r="B169" s="14">
-        <v>4752.8599999999997</v>
+      <c r="B169" s="33">
+        <v>7478.3663157894707</v>
       </c>
       <c r="C169" s="14">
-        <v>14.314700369507889</v>
+        <v>12.802032578761301</v>
       </c>
       <c r="D169" s="15">
-        <v>497.57785620839741</v>
+        <v>229.44443895788876</v>
       </c>
       <c r="E169" s="15">
-        <v>329.51684561697056</v>
+        <v>165.55058675814396</v>
       </c>
       <c r="F169" s="15">
-        <v>889.11007112812945</v>
+        <v>349.59083009520839</v>
       </c>
       <c r="G169" s="28" t="s">
         <v>79</v>
@@ -14468,20 +14484,20 @@
       <c r="A170" s="16">
         <v>806</v>
       </c>
-      <c r="B170" s="14">
-        <v>5293.7052631578999</v>
+      <c r="B170" s="33">
+        <v>7604.2610526315802</v>
       </c>
       <c r="C170" s="14">
-        <v>14.4395133043607</v>
+        <v>13.9156840980922</v>
       </c>
       <c r="D170" s="15">
-        <v>397.07395620815322</v>
+        <v>356.54259811091191</v>
       </c>
       <c r="E170" s="15">
-        <v>260.24097473036369</v>
+        <v>244.64238879083825</v>
       </c>
       <c r="F170" s="15">
-        <v>685.65460193329216</v>
+        <v>581.6958550600101</v>
       </c>
       <c r="G170" s="28" t="s">
         <v>79</v>
@@ -14494,20 +14510,20 @@
       <c r="A171" s="16">
         <v>806</v>
       </c>
-      <c r="B171" s="14">
-        <v>5511.5210526315805</v>
+      <c r="B171" s="33">
+        <v>7739.84</v>
       </c>
       <c r="C171" s="14">
-        <v>11.879439507024401</v>
+        <v>13.5014835619414</v>
       </c>
       <c r="D171" s="15">
-        <v>159.69853644109835</v>
+        <v>303.95191034070109</v>
       </c>
       <c r="E171" s="15">
-        <v>114.21344940392835</v>
+        <v>208.47879523917715</v>
       </c>
       <c r="F171" s="15">
-        <v>236.48994869794251</v>
+        <v>511.92179298029498</v>
       </c>
       <c r="G171" s="28" t="s">
         <v>79</v>
@@ -14520,20 +14536,20 @@
       <c r="A172" s="16">
         <v>806</v>
       </c>
-      <c r="B172" s="14">
-        <v>5576.7842105263198</v>
+      <c r="B172" s="33">
+        <v>7885.1031578947395</v>
       </c>
       <c r="C172" s="14">
-        <v>14.117640282160201</v>
+        <v>14.749378270111899</v>
       </c>
       <c r="D172" s="15">
-        <v>371.47472806090644</v>
+        <v>474.20690400239096</v>
       </c>
       <c r="E172" s="15">
-        <v>246.10355286357205</v>
+        <v>309.18290227973239</v>
       </c>
       <c r="F172" s="15">
-        <v>586.2680091674722</v>
+        <v>783.93545813172295</v>
       </c>
       <c r="G172" s="28" t="s">
         <v>79</v>
@@ -14544,25 +14560,25 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="16">
-        <v>806</v>
-      </c>
-      <c r="B173" s="14">
-        <v>5693.4526315789499</v>
+        <v>999</v>
+      </c>
+      <c r="B173" s="33">
+        <v>8000.3566741943396</v>
       </c>
       <c r="C173" s="14">
-        <v>12.737523860136401</v>
+        <v>11.045064619764844</v>
       </c>
       <c r="D173" s="15">
-        <v>218.64141533103719</v>
+        <v>183.55107180955022</v>
       </c>
       <c r="E173" s="15">
-        <v>147.93066820999036</v>
+        <v>138.71290645325169</v>
       </c>
       <c r="F173" s="15">
-        <v>343.54769380208967</v>
+        <v>273.31261115241148</v>
       </c>
       <c r="G173" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H173" s="11" t="s">
         <v>67</v>
@@ -14572,20 +14588,20 @@
       <c r="A174" s="16">
         <v>806</v>
       </c>
-      <c r="B174" s="14">
-        <v>5870.2947368421101</v>
+      <c r="B174" s="33">
+        <v>8282.1557894736798</v>
       </c>
       <c r="C174" s="14">
-        <v>13.8475854798064</v>
+        <v>14.0817418619257</v>
       </c>
       <c r="D174" s="15">
-        <v>334.75595542299618</v>
+        <v>366.20309280004096</v>
       </c>
       <c r="E174" s="15">
-        <v>225.71344489438854</v>
+        <v>250.49779451058984</v>
       </c>
       <c r="F174" s="15">
-        <v>572.49862071965538</v>
+        <v>614.6957427430815</v>
       </c>
       <c r="G174" s="28" t="s">
         <v>79</v>
@@ -14598,20 +14614,20 @@
       <c r="A175" s="16">
         <v>806</v>
       </c>
-      <c r="B175" s="14">
-        <v>6059.7684210526304</v>
+      <c r="B175" s="33">
+        <v>9236.6097838452806</v>
       </c>
       <c r="C175" s="14">
-        <v>12.9092236897524</v>
+        <v>14.450548413438799</v>
       </c>
       <c r="D175" s="15">
-        <v>234.38656985993177</v>
+        <v>421.86011648822137</v>
       </c>
       <c r="E175" s="15">
-        <v>171.52347522271231</v>
+        <v>284.54526380190106</v>
       </c>
       <c r="F175" s="15">
-        <v>372.10747519915338</v>
+        <v>686.64800649064989</v>
       </c>
       <c r="G175" s="28" t="s">
         <v>79</v>
@@ -14622,25 +14638,25 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="16">
-        <v>806</v>
-      </c>
-      <c r="B176" s="14">
-        <v>6223.9789473684195</v>
+        <v>999</v>
+      </c>
+      <c r="B176" s="33">
+        <v>9308.1359863281305</v>
       </c>
       <c r="C176" s="14">
-        <v>14.697343714344401</v>
+        <v>12.834323547088132</v>
       </c>
       <c r="D176" s="15">
-        <v>466.63925779024726</v>
+        <v>306.13742919567227</v>
       </c>
       <c r="E176" s="15">
-        <v>305.80016364914735</v>
+        <v>229.25885609951328</v>
       </c>
       <c r="F176" s="15">
-        <v>733.12413943061097</v>
+        <v>488.99500071759235</v>
       </c>
       <c r="G176" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H176" s="11" t="s">
         <v>67</v>
@@ -14650,20 +14666,20 @@
       <c r="A177" s="16">
         <v>806</v>
       </c>
-      <c r="B177" s="14">
-        <v>6413.4526315789508</v>
+      <c r="B177" s="33">
+        <v>9419.0140310959414</v>
       </c>
       <c r="C177" s="14">
-        <v>14.4126980118087</v>
+        <v>14.2652379590271</v>
       </c>
       <c r="D177" s="15">
-        <v>416.29294463213324</v>
+        <v>392.84433898276967</v>
       </c>
       <c r="E177" s="15">
-        <v>275.68424458114936</v>
+        <v>267.00695144295617</v>
       </c>
       <c r="F177" s="15">
-        <v>711.06722944008811</v>
+        <v>644.09927172443759</v>
       </c>
       <c r="G177" s="28" t="s">
         <v>79</v>
@@ -14674,25 +14690,25 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="16">
-        <v>806</v>
-      </c>
-      <c r="B178" s="14">
-        <v>6577.6631578947399</v>
+        <v>999</v>
+      </c>
+      <c r="B178" s="33">
+        <v>10330.111503601102</v>
       </c>
       <c r="C178" s="14">
-        <v>11.055275922782901</v>
+        <v>11.560980455469494</v>
       </c>
       <c r="D178" s="15">
-        <v>118.70919568597716</v>
+        <v>371.19723122443349</v>
       </c>
       <c r="E178" s="15">
-        <v>89.75877402839042</v>
+        <v>257.25088513199626</v>
       </c>
       <c r="F178" s="15">
-        <v>176.75960731100602</v>
+        <v>566.71761505525035</v>
       </c>
       <c r="G178" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H178" s="11" t="s">
         <v>67</v>
@@ -14700,25 +14716,25 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="16">
-        <v>806</v>
-      </c>
-      <c r="B179" s="14">
-        <v>6754.5052631579001</v>
+        <v>999</v>
+      </c>
+      <c r="B179" s="33">
+        <v>11200.476646423302</v>
       </c>
       <c r="C179" s="14">
-        <v>14.5111593466365</v>
+        <v>11.697324981050251</v>
       </c>
       <c r="D179" s="15">
-        <v>429.75152780371047</v>
+        <v>459.75546978520498</v>
       </c>
       <c r="E179" s="15">
-        <v>286.432460733146</v>
+        <v>301.17861569132032</v>
       </c>
       <c r="F179" s="15">
-        <v>773.07384304473283</v>
+        <v>768.87051768904541</v>
       </c>
       <c r="G179" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H179" s="11" t="s">
         <v>67</v>
@@ -14726,25 +14742,25 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="16">
-        <v>806</v>
-      </c>
-      <c r="B180" s="14">
-        <v>6926.3663157894698</v>
+        <v>999</v>
+      </c>
+      <c r="B180" s="33">
+        <v>12463.480949401899</v>
       </c>
       <c r="C180" s="14">
-        <v>14.2516393803515</v>
+        <v>12.574247264549809</v>
       </c>
       <c r="D180" s="15">
-        <v>387.03634784959752</v>
+        <v>386.91924494040188</v>
       </c>
       <c r="E180" s="15">
-        <v>251.45599036717493</v>
+        <v>260.41971218270351</v>
       </c>
       <c r="F180" s="15">
-        <v>674.2987086684368</v>
+        <v>620.26357561537577</v>
       </c>
       <c r="G180" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H180" s="11" t="s">
         <v>67</v>
@@ -14752,25 +14768,25 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="16">
-        <v>806</v>
-      </c>
-      <c r="B181" s="14">
-        <v>7061.9452631578897</v>
+        <v>999</v>
+      </c>
+      <c r="B181" s="33">
+        <v>13100.6994247437</v>
       </c>
       <c r="C181" s="14">
-        <v>13.456974482964499</v>
+        <v>12.13014089240616</v>
       </c>
       <c r="D181" s="15">
-        <v>290.23061575458166</v>
+        <v>766.64623141226957</v>
       </c>
       <c r="E181" s="15">
-        <v>193.53486188708013</v>
+        <v>503.22345826194174</v>
       </c>
       <c r="F181" s="15">
-        <v>475.56900204587873</v>
+        <v>1374.7577926366446</v>
       </c>
       <c r="G181" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H181" s="11" t="s">
         <v>67</v>
@@ -14778,25 +14794,25 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="16">
-        <v>806</v>
-      </c>
-      <c r="B182" s="14">
-        <v>7207.20842105263</v>
+        <v>925</v>
+      </c>
+      <c r="B182" s="33">
+        <v>14100</v>
       </c>
       <c r="C182" s="14">
-        <v>12.547721634455501</v>
+        <v>13.1698122975739</v>
       </c>
       <c r="D182" s="15">
-        <v>212.40821000292738</v>
+        <v>641.6373089342195</v>
       </c>
       <c r="E182" s="15">
-        <v>155.20923442177144</v>
+        <v>377.02119493402665</v>
       </c>
       <c r="F182" s="15">
-        <v>322.48904365072815</v>
+        <v>1171.688199008275</v>
       </c>
       <c r="G182" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H182" s="11" t="s">
         <v>67</v>
@@ -14804,25 +14820,25 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="16">
-        <v>806</v>
-      </c>
-      <c r="B183" s="14">
-        <v>7333.1031578947404</v>
+        <v>999</v>
+      </c>
+      <c r="B183" s="33">
+        <v>14358.4442138672</v>
       </c>
       <c r="C183" s="14">
-        <v>12.775928154195899</v>
+        <v>13.978334427661942</v>
       </c>
       <c r="D183" s="15">
-        <v>233.31678544450961</v>
+        <v>1137.492255596412</v>
       </c>
       <c r="E183" s="15">
-        <v>169.23534499142639</v>
+        <v>710.71450215164498</v>
       </c>
       <c r="F183" s="15">
-        <v>364.81276098916811</v>
+        <v>2068.2443441350661</v>
       </c>
       <c r="G183" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H183" s="11" t="s">
         <v>67</v>
@@ -14830,25 +14846,25 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="16">
-        <v>806</v>
-      </c>
-      <c r="B184" s="14">
-        <v>7429.9452631578997</v>
+        <v>925</v>
+      </c>
+      <c r="B184" s="33">
+        <v>14740</v>
       </c>
       <c r="C184" s="14">
-        <v>12.2585270204777</v>
+        <v>15.487612035419</v>
       </c>
       <c r="D184" s="15">
-        <v>189.67207600685683</v>
+        <v>493.0524717913064</v>
       </c>
       <c r="E184" s="15">
-        <v>140.54288749043076</v>
+        <v>335.2671742538439</v>
       </c>
       <c r="F184" s="15">
-        <v>293.98996807128259</v>
+        <v>824.62800230039306</v>
       </c>
       <c r="G184" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H184" s="11" t="s">
         <v>67</v>
@@ -14856,25 +14872,25 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="16">
-        <v>806</v>
-      </c>
-      <c r="B185" s="14">
-        <v>7478.3663157894707</v>
+        <v>999</v>
+      </c>
+      <c r="B185" s="33">
+        <v>15756.1550140381</v>
       </c>
       <c r="C185" s="14">
-        <v>12.802032578761301</v>
+        <v>15.063748611710004</v>
       </c>
       <c r="D185" s="15">
-        <v>229.44443895788876</v>
+        <v>321.49164043891875</v>
       </c>
       <c r="E185" s="15">
-        <v>165.55058675814396</v>
+        <v>222.6235433323711</v>
       </c>
       <c r="F185" s="15">
-        <v>349.59083009520839</v>
+        <v>491.42072446714729</v>
       </c>
       <c r="G185" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H185" s="11" t="s">
         <v>67</v>
@@ -14882,25 +14898,25 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="16">
-        <v>806</v>
-      </c>
-      <c r="B186" s="14">
-        <v>7604.2610526315802</v>
+        <v>925</v>
+      </c>
+      <c r="B186" s="33">
+        <v>15840</v>
       </c>
       <c r="C186" s="14">
-        <v>13.9156840980922</v>
+        <v>14.7899216990992</v>
       </c>
       <c r="D186" s="15">
-        <v>356.54259811091191</v>
+        <v>489.52528939899793</v>
       </c>
       <c r="E186" s="15">
-        <v>244.64238879083825</v>
+        <v>328.29326972677421</v>
       </c>
       <c r="F186" s="15">
-        <v>581.6958550600101</v>
+        <v>848.4996726937934</v>
       </c>
       <c r="G186" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H186" s="11" t="s">
         <v>67</v>
@@ -14908,25 +14924,25 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="16">
-        <v>806</v>
-      </c>
-      <c r="B187" s="14">
-        <v>7739.84</v>
+        <v>925</v>
+      </c>
+      <c r="B187" s="33">
+        <v>16820</v>
       </c>
       <c r="C187" s="14">
-        <v>13.5014835619414</v>
+        <v>14.763701689407499</v>
       </c>
       <c r="D187" s="15">
-        <v>303.95191034070109</v>
+        <v>532.88954333099616</v>
       </c>
       <c r="E187" s="15">
-        <v>208.47879523917715</v>
+        <v>367.43634638171261</v>
       </c>
       <c r="F187" s="15">
-        <v>511.92179298029498</v>
+        <v>884.60112536336544</v>
       </c>
       <c r="G187" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H187" s="11" t="s">
         <v>67</v>
@@ -14934,25 +14950,25 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="16">
-        <v>806</v>
-      </c>
-      <c r="B188" s="14">
-        <v>7885.1031578947395</v>
+        <v>925</v>
+      </c>
+      <c r="B188" s="33">
+        <v>18260</v>
       </c>
       <c r="C188" s="14">
-        <v>14.749378270111899</v>
+        <v>15.011454653359101</v>
       </c>
       <c r="D188" s="15">
-        <v>474.20690400239096</v>
+        <v>310.94757042177912</v>
       </c>
       <c r="E188" s="15">
-        <v>309.18290227973239</v>
+        <v>223.08496577737225</v>
       </c>
       <c r="F188" s="15">
-        <v>783.93545813172295</v>
+        <v>490.57597334483802</v>
       </c>
       <c r="G188" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H188" s="11" t="s">
         <v>67</v>
@@ -14960,25 +14976,25 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="16">
-        <v>806</v>
-      </c>
-      <c r="B189" s="14">
-        <v>8282.1557894736798</v>
+        <v>925</v>
+      </c>
+      <c r="B189" s="33">
+        <v>20300</v>
       </c>
       <c r="C189" s="14">
-        <v>14.0817418619257</v>
+        <v>13.552806486881501</v>
       </c>
       <c r="D189" s="15">
-        <v>366.20309280004096</v>
+        <v>814.76804884683168</v>
       </c>
       <c r="E189" s="15">
-        <v>250.49779451058984</v>
+        <v>519.29388591102497</v>
       </c>
       <c r="F189" s="15">
-        <v>614.6957427430815</v>
+        <v>1523.9442909538152</v>
       </c>
       <c r="G189" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H189" s="11" t="s">
         <v>67</v>
@@ -14986,25 +15002,25 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="16">
-        <v>806</v>
-      </c>
-      <c r="B190" s="14">
-        <v>9236.6097838452806</v>
+        <v>925</v>
+      </c>
+      <c r="B190" s="33">
+        <v>22940</v>
       </c>
       <c r="C190" s="14">
-        <v>14.450548413438799</v>
+        <v>16.126884524716701</v>
       </c>
       <c r="D190" s="15">
-        <v>421.86011648822137</v>
+        <v>536.40351716083092</v>
       </c>
       <c r="E190" s="15">
-        <v>284.54526380190106</v>
+        <v>371.89967817003634</v>
       </c>
       <c r="F190" s="15">
-        <v>686.64800649064989</v>
+        <v>930.82813945424653</v>
       </c>
       <c r="G190" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H190" s="11" t="s">
         <v>67</v>
@@ -15012,25 +15028,25 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="16">
-        <v>806</v>
-      </c>
-      <c r="B191" s="14">
-        <v>9419.0140310959414</v>
+        <v>925</v>
+      </c>
+      <c r="B191" s="33">
+        <v>23480</v>
       </c>
       <c r="C191" s="14">
-        <v>14.2652379590271</v>
+        <v>15.0336420896211</v>
       </c>
       <c r="D191" s="15">
-        <v>392.84433898276967</v>
+        <v>562.70117631986852</v>
       </c>
       <c r="E191" s="15">
-        <v>267.00695144295617</v>
+        <v>385.88967889888954</v>
       </c>
       <c r="F191" s="15">
-        <v>644.09927172443759</v>
+        <v>1049.4194704380325</v>
       </c>
       <c r="G191" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H191" s="11" t="s">
         <v>67</v>
@@ -15040,7 +15056,7 @@
       <c r="A192" s="20">
         <v>516</v>
       </c>
-      <c r="B192" s="21">
+      <c r="B192" s="34">
         <v>24404.385593220301</v>
       </c>
       <c r="C192" s="21">
@@ -15066,7 +15082,7 @@
       <c r="A193" s="20">
         <v>516</v>
       </c>
-      <c r="B193" s="21">
+      <c r="B193" s="34">
         <v>24717.4410211268</v>
       </c>
       <c r="C193" s="21">
@@ -15092,7 +15108,7 @@
       <c r="A194" s="20">
         <v>516</v>
       </c>
-      <c r="B194" s="21">
+      <c r="B194" s="34">
         <v>25877.7797513322</v>
       </c>
       <c r="C194" s="21">
@@ -15118,7 +15134,7 @@
       <c r="A195" s="20">
         <v>516</v>
       </c>
-      <c r="B195" s="21">
+      <c r="B195" s="34">
         <v>28116.059654631103</v>
       </c>
       <c r="C195" s="21">
@@ -15144,7 +15160,7 @@
       <c r="A196" s="20">
         <v>516</v>
       </c>
-      <c r="B196" s="21">
+      <c r="B196" s="34">
         <v>28563.704866561999</v>
       </c>
       <c r="C196" s="21">
@@ -15170,7 +15186,7 @@
       <c r="A197" s="20">
         <v>516</v>
       </c>
-      <c r="B197" s="21">
+      <c r="B197" s="34">
         <v>30098.467133216702</v>
       </c>
       <c r="C197" s="21">
@@ -15196,7 +15212,7 @@
       <c r="A198" s="20">
         <v>516</v>
       </c>
-      <c r="B198" s="21">
+      <c r="B198" s="34">
         <v>30712.6773333333</v>
       </c>
       <c r="C198" s="21">
@@ -15219,26 +15235,26 @@
       </c>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" s="20">
-        <v>516</v>
-      </c>
-      <c r="B199" s="21">
-        <v>32320.791459781503</v>
+      <c r="A199" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B199" s="34">
+        <v>30719.121932983398</v>
       </c>
       <c r="C199" s="21">
-        <v>21.550670368567602</v>
+        <v>20.103031965758099</v>
       </c>
       <c r="D199" s="9">
-        <v>724.77588068026796</v>
+        <v>583.73792241756701</v>
       </c>
       <c r="E199" s="9">
-        <v>571.40808210660805</v>
+        <v>507.20610291536201</v>
       </c>
       <c r="F199" s="9">
-        <v>923.20721894205599</v>
+        <v>676.08524517127296</v>
       </c>
       <c r="G199" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H199" s="19" t="s">
         <v>68</v>
@@ -15246,22 +15262,22 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="20">
-        <v>612</v>
-      </c>
-      <c r="B200" s="21">
-        <v>35018.748</v>
+        <v>516</v>
+      </c>
+      <c r="B200" s="34">
+        <v>32320.791459781503</v>
       </c>
       <c r="C200" s="21">
-        <v>21.142311130206998</v>
+        <v>21.550670368567602</v>
       </c>
       <c r="D200" s="9">
-        <v>598.74107817336903</v>
+        <v>724.77588068026796</v>
       </c>
       <c r="E200" s="9">
-        <v>450.081012487328</v>
+        <v>571.40808210660805</v>
       </c>
       <c r="F200" s="9">
-        <v>762.90624015209505</v>
+        <v>923.20721894205599</v>
       </c>
       <c r="G200" s="9" t="s">
         <v>80</v>
@@ -15271,257 +15287,257 @@
       </c>
     </row>
     <row r="201" spans="1:8">
-      <c r="A201" s="20">
-        <v>612</v>
-      </c>
-      <c r="B201" s="21">
-        <v>35233.604500000001</v>
+      <c r="A201" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B201" s="34">
+        <v>32520.454406738281</v>
       </c>
       <c r="C201" s="21">
-        <v>20.678695512920498</v>
+        <v>19.406481816058601</v>
       </c>
       <c r="D201" s="9">
-        <v>534.71145057805302</v>
+        <v>513.30044256422195</v>
       </c>
       <c r="E201" s="9">
-        <v>421.99838712840699</v>
+        <v>445.394467841942</v>
       </c>
       <c r="F201" s="9">
-        <v>656.55015229495302</v>
+        <v>597.54266906511305</v>
       </c>
       <c r="G201" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H201" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="202" spans="1:8">
-      <c r="A202" s="20">
-        <v>612</v>
-      </c>
-      <c r="B202" s="21">
-        <v>35601.711000000003</v>
+      <c r="A202" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B202" s="34">
+        <v>32605.339050292969</v>
       </c>
       <c r="C202" s="21">
-        <v>20.577673932191999</v>
+        <v>19.167478890952101</v>
       </c>
       <c r="D202" s="9">
-        <v>532.47076365634905</v>
+        <v>501.69567865618501</v>
       </c>
       <c r="E202" s="9">
-        <v>415.97649819535098</v>
+        <v>438.36265574482599</v>
       </c>
       <c r="F202" s="9">
-        <v>662.28747984730398</v>
+        <v>578.61720836849804</v>
       </c>
       <c r="G202" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H202" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="203" spans="1:8">
-      <c r="A203" s="20">
-        <v>612</v>
-      </c>
-      <c r="B203" s="21">
-        <v>35907.291499999999</v>
+      <c r="A203" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B203" s="34">
+        <v>32819.757709251106</v>
       </c>
       <c r="C203" s="21">
-        <v>18.969856951891401</v>
+        <v>19.280037008307101</v>
       </c>
       <c r="D203" s="9">
-        <v>392.00008701316398</v>
+        <v>437.284125283837</v>
       </c>
       <c r="E203" s="9">
-        <v>311.05166350361799</v>
+        <v>367.46905446395999</v>
       </c>
       <c r="F203" s="9">
-        <v>475.43373658085198</v>
+        <v>514.84105064997095</v>
       </c>
       <c r="G203" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H203" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="204" spans="1:8">
-      <c r="A204" s="20">
-        <v>612</v>
-      </c>
-      <c r="B204" s="21">
-        <v>36114.248500000002</v>
+      <c r="A204" s="22">
+        <v>511</v>
+      </c>
+      <c r="B204" s="34">
+        <v>33172.949461474702</v>
       </c>
       <c r="C204" s="21">
-        <v>20.349797782470599</v>
+        <v>21.916459827326001</v>
       </c>
       <c r="D204" s="9">
-        <v>503.740609978679</v>
+        <v>474.379310005062</v>
       </c>
       <c r="E204" s="9">
-        <v>407.14471827208399</v>
+        <v>374.74041457678197</v>
       </c>
       <c r="F204" s="9">
-        <v>620.02892650800402</v>
+        <v>598.395422734166</v>
       </c>
       <c r="G204" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H204" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="205" spans="1:8">
-      <c r="A205" s="20">
-        <v>612</v>
-      </c>
-      <c r="B205" s="21">
-        <v>36658.4185</v>
+      <c r="A205" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B205" s="34">
+        <v>33256.178414096903</v>
       </c>
       <c r="C205" s="21">
-        <v>20.639970368902301</v>
+        <v>17.945044363473201</v>
       </c>
       <c r="D205" s="9">
-        <v>555.08799983722997</v>
+        <v>335.87071675470497</v>
       </c>
       <c r="E205" s="9">
-        <v>441.53455052024702</v>
+        <v>292.98342380379103</v>
       </c>
       <c r="F205" s="9">
-        <v>676.49114897995503</v>
+        <v>385.0798191879</v>
       </c>
       <c r="G205" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H205" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="206" spans="1:8">
-      <c r="A206" s="20">
-        <v>612</v>
-      </c>
-      <c r="B206" s="21">
-        <v>36964.647499999999</v>
+      <c r="A206" s="22">
+        <v>277</v>
+      </c>
+      <c r="B206" s="34">
+        <v>33257.260125622699</v>
       </c>
       <c r="C206" s="21">
-        <v>20.742065020013001</v>
+        <v>22.282972901206701</v>
       </c>
       <c r="D206" s="9">
-        <v>555.84870303259197</v>
+        <v>746.08749821589902</v>
       </c>
       <c r="E206" s="9">
-        <v>450.75481622479901</v>
+        <v>577.72950760394497</v>
       </c>
       <c r="F206" s="9">
-        <v>671.60483723474897</v>
+        <v>954.78439110222803</v>
       </c>
       <c r="G206" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H206" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="207" spans="1:8">
-      <c r="A207" s="20">
-        <v>612</v>
-      </c>
-      <c r="B207" s="21">
-        <v>39871.155500000001</v>
+      <c r="A207" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B207" s="34">
+        <v>33328.689575195312</v>
       </c>
       <c r="C207" s="21">
-        <v>20.971748022769201</v>
+        <v>19.755726988400902</v>
       </c>
       <c r="D207" s="9">
-        <v>666.38235788909401</v>
+        <v>541.59976028588096</v>
       </c>
       <c r="E207" s="9">
-        <v>562.138863087049</v>
+        <v>466.90340332392901</v>
       </c>
       <c r="F207" s="9">
-        <v>785.439798991148</v>
+        <v>627.25234404885396</v>
       </c>
       <c r="G207" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H207" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="208" spans="1:8">
-      <c r="A208" s="20">
-        <v>612</v>
-      </c>
-      <c r="B208" s="21">
-        <v>42347.662499999999</v>
+      <c r="A208" s="22">
+        <v>511</v>
+      </c>
+      <c r="B208" s="34">
+        <v>33476.618061308996</v>
       </c>
       <c r="C208" s="21">
-        <v>22.905757885289301</v>
+        <v>22.377096247230199</v>
       </c>
       <c r="D208" s="9">
-        <v>1398.1277616488901</v>
+        <v>609.55631067969205</v>
       </c>
       <c r="E208" s="9">
-        <v>1125.01386974558</v>
+        <v>482.28907956842102</v>
       </c>
       <c r="F208" s="9">
-        <v>1777.91832743956</v>
+        <v>767.22084090357805</v>
       </c>
       <c r="G208" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H208" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="209" spans="1:8">
-      <c r="A209" s="20">
-        <v>612</v>
-      </c>
-      <c r="B209" s="21">
-        <v>45128.222499999996</v>
+      <c r="A209" s="22">
+        <v>511</v>
+      </c>
+      <c r="B209" s="34">
+        <v>33613.360397680197</v>
       </c>
       <c r="C209" s="21">
-        <v>21.3650729243701</v>
+        <v>21.503043021441801</v>
       </c>
       <c r="D209" s="9">
-        <v>748.09695092892298</v>
+        <v>425.93527062505302</v>
       </c>
       <c r="E209" s="9">
-        <v>625.468779714373</v>
+        <v>337.63445257183298</v>
       </c>
       <c r="F209" s="9">
-        <v>893.54071078744801</v>
+        <v>532.04808941975398</v>
       </c>
       <c r="G209" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H209" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="210" spans="1:8">
-      <c r="A210" s="22">
-        <v>277</v>
-      </c>
-      <c r="B210" s="21">
-        <v>33257.260125622699</v>
+      <c r="A210" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B210" s="34">
+        <v>33650.627753303997</v>
       </c>
       <c r="C210" s="21">
-        <v>22.282972901206701</v>
+        <v>19.192577081593299</v>
       </c>
       <c r="D210" s="9">
-        <v>746.08749821589902</v>
+        <v>421.62146009158499</v>
       </c>
       <c r="E210" s="9">
-        <v>577.72950760394497</v>
+        <v>355.77351863835599</v>
       </c>
       <c r="F210" s="9">
-        <v>954.78439110222803</v>
+        <v>499.76131482222303</v>
       </c>
       <c r="G210" s="9" t="s">
         <v>81</v>
@@ -15531,23 +15547,23 @@
       </c>
     </row>
     <row r="211" spans="1:8">
-      <c r="A211" s="22">
-        <v>277</v>
-      </c>
-      <c r="B211" s="21">
-        <v>34098.7720111214</v>
+      <c r="A211" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B211" s="34">
+        <v>33768.329620361328</v>
       </c>
       <c r="C211" s="21">
-        <v>23.095025896281001</v>
+        <v>19.830563273347</v>
       </c>
       <c r="D211" s="9">
-        <v>1123.39403087508</v>
+        <v>469.40238435026498</v>
       </c>
       <c r="E211" s="9">
-        <v>841.46406925318399</v>
+        <v>390.58952798275499</v>
       </c>
       <c r="F211" s="9">
-        <v>1499.22438480814</v>
+        <v>563.95941112484604</v>
       </c>
       <c r="G211" s="9" t="s">
         <v>81</v>
@@ -15560,20 +15576,20 @@
       <c r="A212" s="22">
         <v>277</v>
       </c>
-      <c r="B212" s="21">
-        <v>35718.354838709703</v>
+      <c r="B212" s="34">
+        <v>34098.7720111214</v>
       </c>
       <c r="C212" s="21">
-        <v>21.1179231459544</v>
+        <v>23.095025896281001</v>
       </c>
       <c r="D212" s="9">
-        <v>545.16648081114602</v>
+        <v>1123.39403087508</v>
       </c>
       <c r="E212" s="9">
-        <v>424.89977038718303</v>
+        <v>841.46406925318399</v>
       </c>
       <c r="F212" s="9">
-        <v>679.23836548556699</v>
+        <v>1499.22438480814</v>
       </c>
       <c r="G212" s="9" t="s">
         <v>81</v>
@@ -15583,23 +15599,23 @@
       </c>
     </row>
     <row r="213" spans="1:8">
-      <c r="A213" s="22">
-        <v>511</v>
-      </c>
-      <c r="B213" s="21">
-        <v>33172.949461474702</v>
+      <c r="A213" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B213" s="34">
+        <v>34124.036697247706</v>
       </c>
       <c r="C213" s="21">
-        <v>21.916459827326001</v>
+        <v>19.8009715877565</v>
       </c>
       <c r="D213" s="9">
-        <v>474.379310005062</v>
+        <v>463.89571231098103</v>
       </c>
       <c r="E213" s="9">
-        <v>374.74041457678197</v>
+        <v>379.59515902160001</v>
       </c>
       <c r="F213" s="9">
-        <v>598.395422734166</v>
+        <v>563.10065720098805</v>
       </c>
       <c r="G213" s="9" t="s">
         <v>81</v>
@@ -15609,23 +15625,23 @@
       </c>
     </row>
     <row r="214" spans="1:8">
-      <c r="A214" s="22">
-        <v>511</v>
-      </c>
-      <c r="B214" s="21">
-        <v>33476.618061308996</v>
+      <c r="A214" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B214" s="34">
+        <v>34139.179229736328</v>
       </c>
       <c r="C214" s="21">
-        <v>22.377096247230199</v>
+        <v>21.090546963561099</v>
       </c>
       <c r="D214" s="9">
-        <v>609.55631067969205</v>
+        <v>710.49562571396905</v>
       </c>
       <c r="E214" s="9">
-        <v>482.28907956842102</v>
+        <v>587.70854223879303</v>
       </c>
       <c r="F214" s="9">
-        <v>767.22084090357805</v>
+        <v>854.86670737240797</v>
       </c>
       <c r="G214" s="9" t="s">
         <v>81</v>
@@ -15635,23 +15651,23 @@
       </c>
     </row>
     <row r="215" spans="1:8">
-      <c r="A215" s="22">
-        <v>511</v>
-      </c>
-      <c r="B215" s="21">
-        <v>33613.360397680197</v>
+      <c r="A215" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B215" s="34">
+        <v>34944.166366582598</v>
       </c>
       <c r="C215" s="21">
-        <v>21.503043021441801</v>
+        <v>21.521009068029699</v>
       </c>
       <c r="D215" s="9">
-        <v>425.93527062505302</v>
+        <v>797.477717908616</v>
       </c>
       <c r="E215" s="9">
-        <v>337.63445257183298</v>
+        <v>656.80673733167396</v>
       </c>
       <c r="F215" s="9">
-        <v>532.04808941975398</v>
+        <v>963.004309940447</v>
       </c>
       <c r="G215" s="9" t="s">
         <v>81</v>
@@ -15661,75 +15677,75 @@
       </c>
     </row>
     <row r="216" spans="1:8">
-      <c r="A216" s="22">
-        <v>511</v>
-      </c>
-      <c r="B216" s="21">
-        <v>35362.429530201298</v>
+      <c r="A216" s="20">
+        <v>612</v>
+      </c>
+      <c r="B216" s="34">
+        <v>35018.748</v>
       </c>
       <c r="C216" s="21">
-        <v>22.5205417554699</v>
+        <v>21.142311130206998</v>
       </c>
       <c r="D216" s="9">
-        <v>835.29793704157498</v>
+        <v>598.74107817336903</v>
       </c>
       <c r="E216" s="9">
-        <v>667.04465541154502</v>
+        <v>450.081012487328</v>
       </c>
       <c r="F216" s="9">
-        <v>1045.63743817921</v>
+        <v>762.90624015209505</v>
       </c>
       <c r="G216" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H216" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="217" spans="1:8">
-      <c r="A217" s="22">
-        <v>511</v>
-      </c>
-      <c r="B217" s="21">
-        <v>37250.2137232846</v>
+      <c r="A217" s="20">
+        <v>612</v>
+      </c>
+      <c r="B217" s="34">
+        <v>35233.604500000001</v>
       </c>
       <c r="C217" s="21">
-        <v>21.548307094975101</v>
+        <v>20.678695512920498</v>
       </c>
       <c r="D217" s="9">
-        <v>560.49342404644597</v>
+        <v>534.71145057805302</v>
       </c>
       <c r="E217" s="9">
-        <v>428.90677166019299</v>
+        <v>421.99838712840699</v>
       </c>
       <c r="F217" s="9">
-        <v>710.84401568831697</v>
+        <v>656.55015229495302</v>
       </c>
       <c r="G217" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H217" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="218" spans="1:8">
-      <c r="A218" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B218" s="21">
-        <v>30719.121932983398</v>
+      <c r="A218" s="22">
+        <v>511</v>
+      </c>
+      <c r="B218" s="34">
+        <v>35362.429530201298</v>
       </c>
       <c r="C218" s="21">
-        <v>20.103031965758099</v>
+        <v>22.5205417554699</v>
       </c>
       <c r="D218" s="9">
-        <v>583.73792241756701</v>
+        <v>835.29793704157498</v>
       </c>
       <c r="E218" s="9">
-        <v>507.20610291536201</v>
+        <v>667.04465541154502</v>
       </c>
       <c r="F218" s="9">
-        <v>676.08524517127296</v>
+        <v>1045.63743817921</v>
       </c>
       <c r="G218" s="9" t="s">
         <v>81</v>
@@ -15742,20 +15758,20 @@
       <c r="A219" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B219" s="21">
-        <v>32520.454406738281</v>
+      <c r="B219" s="34">
+        <v>35448.802947998047</v>
       </c>
       <c r="C219" s="21">
-        <v>19.406481816058601</v>
+        <v>20.730863839480399</v>
       </c>
       <c r="D219" s="9">
-        <v>513.30044256422195</v>
+        <v>634.12174281794103</v>
       </c>
       <c r="E219" s="9">
-        <v>445.394467841942</v>
+        <v>512.43938090799804</v>
       </c>
       <c r="F219" s="9">
-        <v>597.54266906511305</v>
+        <v>767.74104743027794</v>
       </c>
       <c r="G219" s="9" t="s">
         <v>81</v>
@@ -15765,23 +15781,23 @@
       </c>
     </row>
     <row r="220" spans="1:8">
-      <c r="A220" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B220" s="21">
-        <v>32605.339050292969</v>
+      <c r="A220" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B220" s="34">
+        <v>35557.961829312197</v>
       </c>
       <c r="C220" s="21">
-        <v>19.167478890952101</v>
+        <v>21.032539711063301</v>
       </c>
       <c r="D220" s="9">
-        <v>501.69567865618501</v>
+        <v>698.36707894940503</v>
       </c>
       <c r="E220" s="9">
-        <v>438.36265574482599</v>
+        <v>562.49500430512796</v>
       </c>
       <c r="F220" s="9">
-        <v>578.61720836849804</v>
+        <v>859.55849911374605</v>
       </c>
       <c r="G220" s="9" t="s">
         <v>81</v>
@@ -15791,49 +15807,49 @@
       </c>
     </row>
     <row r="221" spans="1:8">
-      <c r="A221" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B221" s="21">
-        <v>33328.689575195312</v>
+      <c r="A221" s="20">
+        <v>612</v>
+      </c>
+      <c r="B221" s="34">
+        <v>35601.711000000003</v>
       </c>
       <c r="C221" s="21">
-        <v>19.755726988400902</v>
+        <v>20.577673932191999</v>
       </c>
       <c r="D221" s="9">
-        <v>541.59976028588096</v>
+        <v>532.47076365634905</v>
       </c>
       <c r="E221" s="9">
-        <v>466.90340332392901</v>
+        <v>415.97649819535098</v>
       </c>
       <c r="F221" s="9">
-        <v>627.25234404885396</v>
+        <v>662.28747984730398</v>
       </c>
       <c r="G221" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H221" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="222" spans="1:8">
-      <c r="A222" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B222" s="21">
-        <v>33768.329620361328</v>
+      <c r="A222" s="22">
+        <v>277</v>
+      </c>
+      <c r="B222" s="34">
+        <v>35718.354838709703</v>
       </c>
       <c r="C222" s="21">
-        <v>19.830563273347</v>
+        <v>21.1179231459544</v>
       </c>
       <c r="D222" s="9">
-        <v>469.40238435026498</v>
+        <v>545.16648081114602</v>
       </c>
       <c r="E222" s="9">
-        <v>390.58952798275499</v>
+        <v>424.89977038718303</v>
       </c>
       <c r="F222" s="9">
-        <v>563.95941112484604</v>
+        <v>679.23836548556699</v>
       </c>
       <c r="G222" s="9" t="s">
         <v>81</v>
@@ -15846,20 +15862,20 @@
       <c r="A223" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B223" s="21">
-        <v>34139.179229736328</v>
+      <c r="B223" s="34">
+        <v>35886.299133300781</v>
       </c>
       <c r="C223" s="21">
-        <v>21.090546963561099</v>
+        <v>22.902001933894802</v>
       </c>
       <c r="D223" s="9">
-        <v>710.49562571396905</v>
+        <v>1267.71661126967</v>
       </c>
       <c r="E223" s="9">
-        <v>587.70854223879303</v>
+        <v>1000.88765647353</v>
       </c>
       <c r="F223" s="9">
-        <v>854.86670737240797</v>
+        <v>1609.28690777568</v>
       </c>
       <c r="G223" s="9" t="s">
         <v>81</v>
@@ -15869,52 +15885,52 @@
       </c>
     </row>
     <row r="224" spans="1:8">
-      <c r="A224" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B224" s="21">
-        <v>35448.802947998047</v>
+      <c r="A224" s="20">
+        <v>612</v>
+      </c>
+      <c r="B224" s="34">
+        <v>35907.291499999999</v>
       </c>
       <c r="C224" s="21">
-        <v>20.730863839480399</v>
+        <v>18.969856951891401</v>
       </c>
       <c r="D224" s="9">
-        <v>634.12174281794103</v>
+        <v>392.00008701316398</v>
       </c>
       <c r="E224" s="9">
-        <v>512.43938090799804</v>
+        <v>311.05166350361799</v>
       </c>
       <c r="F224" s="9">
-        <v>767.74104743027794</v>
+        <v>475.43373658085198</v>
       </c>
       <c r="G224" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H224" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="225" spans="1:8">
-      <c r="A225" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B225" s="21">
-        <v>35886.299133300781</v>
+      <c r="A225" s="20">
+        <v>612</v>
+      </c>
+      <c r="B225" s="34">
+        <v>36114.248500000002</v>
       </c>
       <c r="C225" s="21">
-        <v>22.902001933894802</v>
+        <v>20.349797782470599</v>
       </c>
       <c r="D225" s="9">
-        <v>1267.71661126967</v>
+        <v>503.740609978679</v>
       </c>
       <c r="E225" s="9">
-        <v>1000.88765647353</v>
+        <v>407.14471827208399</v>
       </c>
       <c r="F225" s="9">
-        <v>1609.28690777568</v>
+        <v>620.02892650800402</v>
       </c>
       <c r="G225" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H225" s="19" t="s">
         <v>68</v>
@@ -15924,7 +15940,7 @@
       <c r="A226" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B226" s="21">
+      <c r="B226" s="34">
         <v>36168.666839599609</v>
       </c>
       <c r="C226" s="21">
@@ -15947,75 +15963,75 @@
       </c>
     </row>
     <row r="227" spans="1:8">
-      <c r="A227" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B227" s="21">
-        <v>32819.757709251106</v>
+      <c r="A227" s="20">
+        <v>612</v>
+      </c>
+      <c r="B227" s="34">
+        <v>36658.4185</v>
       </c>
       <c r="C227" s="21">
-        <v>19.280037008307101</v>
+        <v>20.639970368902301</v>
       </c>
       <c r="D227" s="9">
-        <v>437.284125283837</v>
+        <v>555.08799983722997</v>
       </c>
       <c r="E227" s="9">
-        <v>367.46905446395999</v>
+        <v>441.53455052024702</v>
       </c>
       <c r="F227" s="9">
-        <v>514.84105064997095</v>
+        <v>676.49114897995503</v>
       </c>
       <c r="G227" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H227" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="228" spans="1:8">
-      <c r="A228" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B228" s="21">
-        <v>33256.178414096903</v>
+      <c r="A228" s="20">
+        <v>612</v>
+      </c>
+      <c r="B228" s="34">
+        <v>36964.647499999999</v>
       </c>
       <c r="C228" s="21">
-        <v>17.945044363473201</v>
+        <v>20.742065020013001</v>
       </c>
       <c r="D228" s="9">
-        <v>335.87071675470497</v>
+        <v>555.84870303259197</v>
       </c>
       <c r="E228" s="9">
-        <v>292.98342380379103</v>
+        <v>450.75481622479901</v>
       </c>
       <c r="F228" s="9">
-        <v>385.0798191879</v>
+        <v>671.60483723474897</v>
       </c>
       <c r="G228" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H228" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="229" spans="1:8">
-      <c r="A229" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B229" s="21">
-        <v>33650.627753303997</v>
+      <c r="A229" s="22">
+        <v>511</v>
+      </c>
+      <c r="B229" s="34">
+        <v>37250.2137232846</v>
       </c>
       <c r="C229" s="21">
-        <v>19.192577081593299</v>
+        <v>21.548307094975101</v>
       </c>
       <c r="D229" s="9">
-        <v>421.62146009158499</v>
+        <v>560.49342404644597</v>
       </c>
       <c r="E229" s="9">
-        <v>355.77351863835599</v>
+        <v>428.90677166019299</v>
       </c>
       <c r="F229" s="9">
-        <v>499.76131482222303</v>
+        <v>710.84401568831697</v>
       </c>
       <c r="G229" s="9" t="s">
         <v>81</v>
@@ -16025,84 +16041,87 @@
       </c>
     </row>
     <row r="230" spans="1:8">
-      <c r="A230" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B230" s="21">
-        <v>34124.036697247706</v>
+      <c r="A230" s="20">
+        <v>612</v>
+      </c>
+      <c r="B230" s="34">
+        <v>39871.155500000001</v>
       </c>
       <c r="C230" s="21">
-        <v>19.8009715877565</v>
+        <v>20.971748022769201</v>
       </c>
       <c r="D230" s="9">
-        <v>463.89571231098103</v>
+        <v>666.38235788909401</v>
       </c>
       <c r="E230" s="9">
-        <v>379.59515902160001</v>
+        <v>562.138863087049</v>
       </c>
       <c r="F230" s="9">
-        <v>563.10065720098805</v>
+        <v>785.439798991148</v>
       </c>
       <c r="G230" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H230" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="231" spans="1:8">
-      <c r="A231" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B231" s="21">
-        <v>34944.166366582598</v>
+      <c r="A231" s="20">
+        <v>612</v>
+      </c>
+      <c r="B231" s="34">
+        <v>42347.662499999999</v>
       </c>
       <c r="C231" s="21">
-        <v>21.521009068029699</v>
+        <v>22.905757885289301</v>
       </c>
       <c r="D231" s="9">
-        <v>797.477717908616</v>
+        <v>1398.1277616488901</v>
       </c>
       <c r="E231" s="9">
-        <v>656.80673733167396</v>
+        <v>1125.01386974558</v>
       </c>
       <c r="F231" s="9">
-        <v>963.004309940447</v>
+        <v>1777.91832743956</v>
       </c>
       <c r="G231" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H231" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="232" spans="1:8">
-      <c r="A232" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B232" s="21">
-        <v>35557.961829312197</v>
+      <c r="A232" s="20">
+        <v>612</v>
+      </c>
+      <c r="B232" s="34">
+        <v>45128.222499999996</v>
       </c>
       <c r="C232" s="21">
-        <v>21.032539711063301</v>
+        <v>21.3650729243701</v>
       </c>
       <c r="D232" s="9">
-        <v>698.36707894940503</v>
+        <v>748.09695092892298</v>
       </c>
       <c r="E232" s="9">
-        <v>562.49500430512796</v>
+        <v>625.468779714373</v>
       </c>
       <c r="F232" s="9">
-        <v>859.55849911374605</v>
+        <v>893.54071078744801</v>
       </c>
       <c r="G232" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H232" s="19" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H232">
+    <sortCondition ref="B232"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -16112,7 +16131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0865A922-11C6-AC4B-8896-8AD6431D7706}">
   <dimension ref="A1:K683"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A362" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -40046,7 +40065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A649DB0-AE3B-6744-9A85-D087D27230E4}">
   <dimension ref="A1:H1889"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
